--- a/excel examples/questionsExample (for app).xlsx
+++ b/excel examples/questionsExample (for app).xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alikali Ojonugwa\Documents\React-Projectx\COMPUTER_BASED-ASSESSMENT\cbt\excel examples\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\keyz\Documents\cbt\cbt-new\computer-based-assessment\excel examples\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6225E42E-CE71-47AE-8EC9-B82D40183FEC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1644,7 +1643,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1964,11 +1963,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I161"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="C1" sqref="C1:E161"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1992,25 +1991,25 @@
         <v>37</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>41</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -2021,22 +2020,22 @@
         <v>3</v>
       </c>
       <c r="C2" t="s">
+        <v>268</v>
+      </c>
+      <c r="D2">
+        <v>2</v>
+      </c>
+      <c r="F2" t="s">
         <v>42</v>
       </c>
-      <c r="D2" t="s">
+      <c r="G2" t="s">
         <v>43</v>
       </c>
-      <c r="E2" t="s">
+      <c r="H2" t="s">
         <v>44</v>
       </c>
-      <c r="F2" t="s">
+      <c r="I2" t="s">
         <v>45</v>
-      </c>
-      <c r="G2" t="s">
-        <v>268</v>
-      </c>
-      <c r="H2">
-        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -2048,22 +2047,22 @@
         <v>4</v>
       </c>
       <c r="C3" t="s">
+        <v>269</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+      <c r="F3" t="s">
         <v>140</v>
       </c>
-      <c r="D3" t="s">
+      <c r="G3" t="s">
         <v>141</v>
       </c>
-      <c r="E3" t="s">
+      <c r="H3" t="s">
         <v>137</v>
       </c>
-      <c r="F3" t="s">
+      <c r="I3" t="s">
         <v>136</v>
-      </c>
-      <c r="G3" t="s">
-        <v>269</v>
-      </c>
-      <c r="H3">
-        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -2075,22 +2074,22 @@
         <v>142</v>
       </c>
       <c r="C4" t="s">
+        <v>269</v>
+      </c>
+      <c r="D4">
+        <v>2</v>
+      </c>
+      <c r="F4" t="s">
         <v>140</v>
       </c>
-      <c r="D4" t="s">
+      <c r="G4" t="s">
         <v>137</v>
       </c>
-      <c r="E4" t="s">
+      <c r="H4" t="s">
         <v>138</v>
       </c>
-      <c r="F4" t="s">
+      <c r="I4" t="s">
         <v>141</v>
-      </c>
-      <c r="G4" t="s">
-        <v>269</v>
-      </c>
-      <c r="H4">
-        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -2102,22 +2101,22 @@
         <v>5</v>
       </c>
       <c r="C5" t="s">
+        <v>269</v>
+      </c>
+      <c r="D5">
+        <v>2</v>
+      </c>
+      <c r="F5" t="s">
         <v>272</v>
       </c>
-      <c r="D5" t="s">
+      <c r="G5" t="s">
         <v>139</v>
       </c>
-      <c r="E5" t="s">
+      <c r="H5" t="s">
         <v>138</v>
       </c>
-      <c r="F5" t="s">
+      <c r="I5" t="s">
         <v>141</v>
-      </c>
-      <c r="G5" t="s">
-        <v>269</v>
-      </c>
-      <c r="H5">
-        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -2129,22 +2128,22 @@
         <v>6</v>
       </c>
       <c r="C6" t="s">
+        <v>269</v>
+      </c>
+      <c r="D6">
+        <v>2</v>
+      </c>
+      <c r="F6" t="s">
         <v>137</v>
       </c>
-      <c r="D6" t="s">
+      <c r="G6" t="s">
         <v>136</v>
       </c>
-      <c r="E6" t="s">
+      <c r="H6" t="s">
         <v>140</v>
       </c>
-      <c r="F6" t="s">
+      <c r="I6" t="s">
         <v>141</v>
-      </c>
-      <c r="G6" t="s">
-        <v>269</v>
-      </c>
-      <c r="H6">
-        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -2156,22 +2155,22 @@
         <v>7</v>
       </c>
       <c r="C7" t="s">
+        <v>270</v>
+      </c>
+      <c r="D7">
+        <v>2</v>
+      </c>
+      <c r="F7" t="s">
         <v>133</v>
       </c>
-      <c r="D7" t="s">
+      <c r="G7" t="s">
         <v>132</v>
       </c>
-      <c r="E7" t="s">
+      <c r="H7" t="s">
         <v>273</v>
       </c>
-      <c r="F7" t="s">
+      <c r="I7" t="s">
         <v>64</v>
-      </c>
-      <c r="G7" t="s">
-        <v>270</v>
-      </c>
-      <c r="H7">
-        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -2183,22 +2182,22 @@
         <v>8</v>
       </c>
       <c r="C8" t="s">
+        <v>270</v>
+      </c>
+      <c r="D8">
+        <v>2</v>
+      </c>
+      <c r="F8" t="s">
         <v>274</v>
       </c>
-      <c r="D8" t="s">
+      <c r="G8" t="s">
         <v>131</v>
       </c>
-      <c r="E8" t="s">
+      <c r="H8" t="s">
         <v>130</v>
       </c>
-      <c r="F8" t="s">
+      <c r="I8" t="s">
         <v>64</v>
-      </c>
-      <c r="G8" t="s">
-        <v>270</v>
-      </c>
-      <c r="H8">
-        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -2210,22 +2209,22 @@
         <v>9</v>
       </c>
       <c r="C9" t="s">
+        <v>268</v>
+      </c>
+      <c r="D9">
+        <v>2</v>
+      </c>
+      <c r="F9" t="s">
         <v>275</v>
       </c>
-      <c r="D9" t="s">
+      <c r="G9" t="s">
         <v>129</v>
       </c>
-      <c r="E9" t="s">
+      <c r="H9" t="s">
         <v>128</v>
       </c>
-      <c r="F9" t="s">
+      <c r="I9" t="s">
         <v>106</v>
-      </c>
-      <c r="G9" t="s">
-        <v>268</v>
-      </c>
-      <c r="H9">
-        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -2237,22 +2236,22 @@
         <v>10</v>
       </c>
       <c r="C10" t="s">
+        <v>268</v>
+      </c>
+      <c r="D10">
+        <v>2</v>
+      </c>
+      <c r="F10" t="s">
         <v>127</v>
       </c>
-      <c r="D10" t="s">
+      <c r="G10" t="s">
         <v>126</v>
       </c>
-      <c r="E10" t="s">
+      <c r="H10" t="s">
         <v>276</v>
       </c>
-      <c r="F10" t="s">
+      <c r="I10" t="s">
         <v>125</v>
-      </c>
-      <c r="G10" t="s">
-        <v>268</v>
-      </c>
-      <c r="H10">
-        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -2264,22 +2263,22 @@
         <v>11</v>
       </c>
       <c r="C11" t="s">
+        <v>270</v>
+      </c>
+      <c r="D11">
+        <v>2</v>
+      </c>
+      <c r="F11" t="s">
         <v>124</v>
       </c>
-      <c r="D11" t="s">
+      <c r="G11" t="s">
         <v>123</v>
       </c>
-      <c r="E11" t="s">
+      <c r="H11" t="s">
         <v>122</v>
       </c>
-      <c r="F11" t="s">
+      <c r="I11" t="s">
         <v>121</v>
-      </c>
-      <c r="G11" t="s">
-        <v>270</v>
-      </c>
-      <c r="H11">
-        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
@@ -2291,22 +2290,22 @@
         <v>12</v>
       </c>
       <c r="C12" t="s">
+        <v>271</v>
+      </c>
+      <c r="D12">
+        <v>2</v>
+      </c>
+      <c r="F12" t="s">
         <v>120</v>
       </c>
-      <c r="D12" t="s">
+      <c r="G12" t="s">
         <v>119</v>
       </c>
-      <c r="E12" t="s">
+      <c r="H12" t="s">
         <v>118</v>
       </c>
-      <c r="F12" t="s">
+      <c r="I12" t="s">
         <v>117</v>
-      </c>
-      <c r="G12" t="s">
-        <v>271</v>
-      </c>
-      <c r="H12">
-        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
@@ -2318,22 +2317,22 @@
         <v>13</v>
       </c>
       <c r="C13" t="s">
+        <v>268</v>
+      </c>
+      <c r="D13">
+        <v>2</v>
+      </c>
+      <c r="F13" t="s">
         <v>116</v>
       </c>
-      <c r="D13" t="s">
+      <c r="G13" t="s">
         <v>277</v>
       </c>
-      <c r="E13" t="s">
+      <c r="H13" t="s">
         <v>115</v>
       </c>
-      <c r="F13" t="s">
+      <c r="I13" t="s">
         <v>114</v>
-      </c>
-      <c r="G13" t="s">
-        <v>268</v>
-      </c>
-      <c r="H13">
-        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
@@ -2345,22 +2344,22 @@
         <v>14</v>
       </c>
       <c r="C14" t="s">
+        <v>271</v>
+      </c>
+      <c r="D14">
+        <v>2</v>
+      </c>
+      <c r="F14" t="s">
         <v>278</v>
       </c>
-      <c r="D14" t="s">
+      <c r="G14" t="s">
         <v>113</v>
       </c>
-      <c r="E14" t="s">
+      <c r="H14" t="s">
         <v>112</v>
       </c>
-      <c r="F14" t="s">
+      <c r="I14" t="s">
         <v>106</v>
-      </c>
-      <c r="G14" t="s">
-        <v>271</v>
-      </c>
-      <c r="H14">
-        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
@@ -2372,22 +2371,22 @@
         <v>15</v>
       </c>
       <c r="C15" t="s">
+        <v>269</v>
+      </c>
+      <c r="D15">
+        <v>2</v>
+      </c>
+      <c r="F15" t="s">
         <v>111</v>
       </c>
-      <c r="D15" t="s">
+      <c r="G15" t="s">
         <v>110</v>
       </c>
-      <c r="E15" t="s">
+      <c r="H15" t="s">
         <v>109</v>
       </c>
-      <c r="F15" t="s">
+      <c r="I15" t="s">
         <v>106</v>
-      </c>
-      <c r="G15" t="s">
-        <v>269</v>
-      </c>
-      <c r="H15">
-        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
@@ -2399,25 +2398,25 @@
         <v>16</v>
       </c>
       <c r="C16" t="s">
+        <v>271</v>
+      </c>
+      <c r="D16">
+        <v>2</v>
+      </c>
+      <c r="F16" t="s">
         <v>108</v>
       </c>
-      <c r="D16" t="s">
+      <c r="G16" t="s">
         <v>279</v>
       </c>
-      <c r="E16" t="s">
+      <c r="H16" t="s">
         <v>107</v>
       </c>
-      <c r="F16" t="s">
+      <c r="I16" t="s">
         <v>106</v>
       </c>
-      <c r="G16" t="s">
-        <v>271</v>
-      </c>
-      <c r="H16">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -2426,25 +2425,25 @@
         <v>17</v>
       </c>
       <c r="C17" t="s">
+        <v>271</v>
+      </c>
+      <c r="D17">
+        <v>2</v>
+      </c>
+      <c r="F17" t="s">
         <v>105</v>
       </c>
-      <c r="D17" t="s">
+      <c r="G17" t="s">
         <v>104</v>
       </c>
-      <c r="E17" t="s">
+      <c r="H17" t="s">
         <v>280</v>
       </c>
-      <c r="F17" t="s">
+      <c r="I17" t="s">
         <v>281</v>
       </c>
-      <c r="G17" t="s">
-        <v>271</v>
-      </c>
-      <c r="H17">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -2453,25 +2452,25 @@
         <v>18</v>
       </c>
       <c r="C18" t="s">
+        <v>268</v>
+      </c>
+      <c r="D18">
+        <v>2</v>
+      </c>
+      <c r="F18" t="s">
         <v>103</v>
       </c>
-      <c r="D18" t="s">
+      <c r="G18" t="s">
         <v>102</v>
       </c>
-      <c r="E18" t="s">
+      <c r="H18" t="s">
         <v>101</v>
       </c>
-      <c r="F18" t="s">
+      <c r="I18" t="s">
         <v>64</v>
       </c>
-      <c r="G18" t="s">
-        <v>268</v>
-      </c>
-      <c r="H18">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -2480,25 +2479,25 @@
         <v>19</v>
       </c>
       <c r="C19" t="s">
+        <v>268</v>
+      </c>
+      <c r="D19">
+        <v>2</v>
+      </c>
+      <c r="F19" t="s">
         <v>100</v>
       </c>
-      <c r="D19" t="s">
+      <c r="G19" t="s">
         <v>99</v>
       </c>
-      <c r="E19" t="s">
+      <c r="H19" t="s">
         <v>98</v>
       </c>
-      <c r="F19" t="s">
+      <c r="I19" t="s">
         <v>97</v>
       </c>
-      <c r="G19" t="s">
-        <v>268</v>
-      </c>
-      <c r="H19">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -2507,25 +2506,25 @@
         <v>20</v>
       </c>
       <c r="C20" t="s">
+        <v>269</v>
+      </c>
+      <c r="D20">
+        <v>2</v>
+      </c>
+      <c r="F20" t="s">
         <v>96</v>
       </c>
-      <c r="D20" t="s">
+      <c r="G20" t="s">
         <v>95</v>
       </c>
-      <c r="E20" t="s">
+      <c r="H20" t="s">
         <v>94</v>
       </c>
-      <c r="F20" t="s">
+      <c r="I20" t="s">
         <v>93</v>
       </c>
-      <c r="G20" t="s">
-        <v>269</v>
-      </c>
-      <c r="H20">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -2534,25 +2533,25 @@
         <v>21</v>
       </c>
       <c r="C21" t="s">
+        <v>269</v>
+      </c>
+      <c r="D21">
+        <v>2</v>
+      </c>
+      <c r="F21" t="s">
         <v>282</v>
       </c>
-      <c r="D21" t="s">
+      <c r="G21" t="s">
         <v>92</v>
       </c>
-      <c r="E21" t="s">
+      <c r="H21" t="s">
         <v>91</v>
       </c>
-      <c r="F21" t="s">
+      <c r="I21" t="s">
         <v>90</v>
       </c>
-      <c r="G21" t="s">
-        <v>269</v>
-      </c>
-      <c r="H21">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -2561,25 +2560,25 @@
         <v>22</v>
       </c>
       <c r="C22" t="s">
+        <v>269</v>
+      </c>
+      <c r="D22">
+        <v>2</v>
+      </c>
+      <c r="F22" t="s">
         <v>283</v>
       </c>
-      <c r="D22" t="s">
+      <c r="G22" t="s">
         <v>89</v>
       </c>
-      <c r="E22" t="s">
+      <c r="H22" t="s">
         <v>88</v>
       </c>
-      <c r="F22" t="s">
+      <c r="I22" t="s">
         <v>87</v>
       </c>
-      <c r="G22" t="s">
-        <v>269</v>
-      </c>
-      <c r="H22">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -2588,25 +2587,25 @@
         <v>23</v>
       </c>
       <c r="C23" t="s">
+        <v>269</v>
+      </c>
+      <c r="D23">
+        <v>2</v>
+      </c>
+      <c r="F23" t="s">
         <v>284</v>
       </c>
-      <c r="D23" t="s">
+      <c r="G23" t="s">
         <v>86</v>
       </c>
-      <c r="E23" t="s">
+      <c r="H23" t="s">
         <v>85</v>
       </c>
-      <c r="F23" t="s">
+      <c r="I23" t="s">
         <v>84</v>
       </c>
-      <c r="G23" t="s">
-        <v>269</v>
-      </c>
-      <c r="H23">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -2615,25 +2614,25 @@
         <v>24</v>
       </c>
       <c r="C24" t="s">
+        <v>268</v>
+      </c>
+      <c r="D24">
+        <v>2</v>
+      </c>
+      <c r="F24" t="s">
         <v>83</v>
       </c>
-      <c r="D24" t="s">
+      <c r="G24" t="s">
         <v>82</v>
       </c>
-      <c r="E24" t="s">
+      <c r="H24" t="s">
         <v>81</v>
       </c>
-      <c r="F24" t="s">
+      <c r="I24" t="s">
         <v>80</v>
       </c>
-      <c r="G24" t="s">
-        <v>268</v>
-      </c>
-      <c r="H24">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -2642,25 +2641,25 @@
         <v>25</v>
       </c>
       <c r="C25" t="s">
+        <v>271</v>
+      </c>
+      <c r="D25">
+        <v>2</v>
+      </c>
+      <c r="F25" t="s">
         <v>285</v>
       </c>
-      <c r="D25" t="s">
+      <c r="G25" t="s">
         <v>79</v>
       </c>
-      <c r="E25" t="s">
+      <c r="H25" t="s">
         <v>286</v>
       </c>
-      <c r="F25" t="s">
+      <c r="I25" t="s">
         <v>287</v>
       </c>
-      <c r="G25" t="s">
-        <v>271</v>
-      </c>
-      <c r="H25">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -2669,25 +2668,25 @@
         <v>26</v>
       </c>
       <c r="C26" t="s">
+        <v>271</v>
+      </c>
+      <c r="D26">
+        <v>2</v>
+      </c>
+      <c r="F26" t="s">
         <v>77</v>
       </c>
-      <c r="D26" t="s">
+      <c r="G26" t="s">
         <v>76</v>
       </c>
-      <c r="E26" t="s">
+      <c r="H26" t="s">
         <v>78</v>
       </c>
-      <c r="F26" t="s">
+      <c r="I26" t="s">
         <v>288</v>
       </c>
-      <c r="G26" t="s">
-        <v>271</v>
-      </c>
-      <c r="H26">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -2696,25 +2695,25 @@
         <v>27</v>
       </c>
       <c r="C27" t="s">
+        <v>269</v>
+      </c>
+      <c r="D27">
+        <v>2</v>
+      </c>
+      <c r="F27" t="s">
         <v>77</v>
       </c>
-      <c r="D27" t="s">
+      <c r="G27" t="s">
         <v>76</v>
       </c>
-      <c r="E27" t="s">
+      <c r="H27" t="s">
         <v>75</v>
       </c>
-      <c r="F27" t="s">
+      <c r="I27" t="s">
         <v>74</v>
       </c>
-      <c r="G27" t="s">
-        <v>269</v>
-      </c>
-      <c r="H27">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -2723,25 +2722,25 @@
         <v>28</v>
       </c>
       <c r="C28" t="s">
+        <v>270</v>
+      </c>
+      <c r="D28">
+        <v>2</v>
+      </c>
+      <c r="F28" t="s">
         <v>289</v>
       </c>
-      <c r="D28" t="s">
+      <c r="G28" t="s">
         <v>73</v>
       </c>
-      <c r="E28" t="s">
+      <c r="H28" t="s">
         <v>72</v>
       </c>
-      <c r="F28" t="s">
+      <c r="I28" t="s">
         <v>64</v>
       </c>
-      <c r="G28" t="s">
-        <v>270</v>
-      </c>
-      <c r="H28">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -2750,25 +2749,25 @@
         <v>29</v>
       </c>
       <c r="C29" t="s">
+        <v>268</v>
+      </c>
+      <c r="D29">
+        <v>2</v>
+      </c>
+      <c r="F29" t="s">
         <v>71</v>
       </c>
-      <c r="D29" t="s">
+      <c r="G29" t="s">
         <v>70</v>
       </c>
-      <c r="E29" t="s">
+      <c r="H29" t="s">
         <v>69</v>
       </c>
-      <c r="F29" t="s">
+      <c r="I29" t="s">
         <v>68</v>
       </c>
-      <c r="G29" t="s">
-        <v>268</v>
-      </c>
-      <c r="H29">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -2777,25 +2776,25 @@
         <v>30</v>
       </c>
       <c r="C30" t="s">
+        <v>270</v>
+      </c>
+      <c r="D30">
+        <v>2</v>
+      </c>
+      <c r="F30" t="s">
         <v>67</v>
       </c>
-      <c r="D30" t="s">
+      <c r="G30" t="s">
         <v>63</v>
       </c>
-      <c r="E30" t="s">
+      <c r="H30" t="s">
         <v>62</v>
       </c>
-      <c r="F30" t="s">
+      <c r="I30" t="s">
         <v>61</v>
       </c>
-      <c r="G30" t="s">
-        <v>270</v>
-      </c>
-      <c r="H30">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -2804,25 +2803,25 @@
         <v>31</v>
       </c>
       <c r="C31" t="s">
+        <v>268</v>
+      </c>
+      <c r="D31">
+        <v>2</v>
+      </c>
+      <c r="F31" t="s">
         <v>290</v>
       </c>
-      <c r="D31" t="s">
+      <c r="G31" t="s">
         <v>66</v>
       </c>
-      <c r="E31" t="s">
+      <c r="H31" t="s">
         <v>65</v>
       </c>
-      <c r="F31" t="s">
+      <c r="I31" t="s">
         <v>64</v>
       </c>
-      <c r="G31" t="s">
-        <v>268</v>
-      </c>
-      <c r="H31">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <f t="shared" si="0"/>
         <v>31</v>
@@ -2831,25 +2830,25 @@
         <v>32</v>
       </c>
       <c r="C32" t="s">
+        <v>271</v>
+      </c>
+      <c r="D32">
+        <v>2</v>
+      </c>
+      <c r="F32" t="s">
         <v>60</v>
       </c>
-      <c r="D32" t="s">
+      <c r="G32" t="s">
         <v>59</v>
       </c>
-      <c r="E32" t="s">
+      <c r="H32" t="s">
         <v>58</v>
       </c>
-      <c r="F32" t="s">
+      <c r="I32" t="s">
         <v>57</v>
       </c>
-      <c r="G32" t="s">
-        <v>271</v>
-      </c>
-      <c r="H32">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <f t="shared" si="0"/>
         <v>32</v>
@@ -2858,25 +2857,25 @@
         <v>33</v>
       </c>
       <c r="C33" t="s">
+        <v>268</v>
+      </c>
+      <c r="D33">
+        <v>2</v>
+      </c>
+      <c r="F33" t="s">
         <v>56</v>
       </c>
-      <c r="D33" t="s">
+      <c r="G33" t="s">
         <v>55</v>
       </c>
-      <c r="E33" t="s">
+      <c r="H33" t="s">
         <v>54</v>
       </c>
-      <c r="F33" t="s">
+      <c r="I33" t="s">
         <v>53</v>
       </c>
-      <c r="G33" t="s">
-        <v>268</v>
-      </c>
-      <c r="H33">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <f t="shared" si="0"/>
         <v>33</v>
@@ -2885,25 +2884,25 @@
         <v>34</v>
       </c>
       <c r="C34" t="s">
+        <v>270</v>
+      </c>
+      <c r="D34">
+        <v>2</v>
+      </c>
+      <c r="F34" t="s">
         <v>291</v>
       </c>
-      <c r="D34" t="s">
+      <c r="G34" t="s">
         <v>52</v>
       </c>
-      <c r="E34" t="s">
+      <c r="H34" t="s">
         <v>51</v>
       </c>
-      <c r="F34" t="s">
+      <c r="I34" t="s">
         <v>50</v>
       </c>
-      <c r="G34" t="s">
-        <v>270</v>
-      </c>
-      <c r="H34">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <f t="shared" si="0"/>
         <v>34</v>
@@ -2912,25 +2911,25 @@
         <v>35</v>
       </c>
       <c r="C35" t="s">
+        <v>270</v>
+      </c>
+      <c r="D35">
+        <v>2</v>
+      </c>
+      <c r="F35" t="s">
         <v>46</v>
       </c>
-      <c r="D35" t="s">
+      <c r="G35" t="s">
         <v>47</v>
       </c>
-      <c r="E35" t="s">
+      <c r="H35" t="s">
         <v>48</v>
       </c>
-      <c r="F35" t="s">
+      <c r="I35" t="s">
         <v>49</v>
       </c>
-      <c r="G35" t="s">
-        <v>270</v>
-      </c>
-      <c r="H35">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <f t="shared" si="0"/>
         <v>35</v>
@@ -2938,26 +2937,26 @@
       <c r="B36" t="s">
         <v>36</v>
       </c>
-      <c r="C36">
+      <c r="C36" t="s">
+        <v>271</v>
+      </c>
+      <c r="D36">
+        <v>2</v>
+      </c>
+      <c r="F36">
         <v>5</v>
       </c>
-      <c r="D36">
+      <c r="G36">
         <v>4</v>
       </c>
-      <c r="E36">
+      <c r="H36">
         <v>3</v>
       </c>
-      <c r="F36">
-        <v>2</v>
-      </c>
-      <c r="G36" t="s">
-        <v>271</v>
-      </c>
-      <c r="H36">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I36">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <f t="shared" si="0"/>
         <v>36</v>
@@ -2965,26 +2964,26 @@
       <c r="B37" t="s">
         <v>143</v>
       </c>
-      <c r="C37">
+      <c r="C37" t="s">
+        <v>271</v>
+      </c>
+      <c r="D37">
+        <v>2</v>
+      </c>
+      <c r="F37">
         <v>5</v>
       </c>
-      <c r="D37">
+      <c r="G37">
         <v>4</v>
       </c>
-      <c r="E37">
+      <c r="H37">
         <v>3</v>
       </c>
-      <c r="F37">
-        <v>2</v>
-      </c>
-      <c r="G37" t="s">
-        <v>271</v>
-      </c>
-      <c r="H37">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I37">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <f t="shared" si="0"/>
         <v>37</v>
@@ -2992,26 +2991,26 @@
       <c r="B38" t="s">
         <v>144</v>
       </c>
-      <c r="C38">
+      <c r="C38" t="s">
+        <v>269</v>
+      </c>
+      <c r="D38">
+        <v>2</v>
+      </c>
+      <c r="F38">
         <v>5</v>
       </c>
-      <c r="D38">
+      <c r="G38">
         <v>4</v>
       </c>
-      <c r="E38">
+      <c r="H38">
         <v>3</v>
       </c>
-      <c r="F38">
-        <v>2</v>
-      </c>
-      <c r="G38" t="s">
-        <v>269</v>
-      </c>
-      <c r="H38">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I38">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <f t="shared" si="0"/>
         <v>38</v>
@@ -3020,19 +3019,19 @@
         <v>145</v>
       </c>
       <c r="C39" t="s">
+        <v>269</v>
+      </c>
+      <c r="D39">
+        <v>2</v>
+      </c>
+      <c r="F39" t="s">
         <v>292</v>
       </c>
-      <c r="D39" t="s">
+      <c r="G39" t="s">
         <v>293</v>
       </c>
-      <c r="G39" t="s">
-        <v>269</v>
-      </c>
-      <c r="H39">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <f t="shared" si="0"/>
         <v>39</v>
@@ -3041,19 +3040,19 @@
         <v>146</v>
       </c>
       <c r="C40" t="s">
+        <v>271</v>
+      </c>
+      <c r="D40">
+        <v>2</v>
+      </c>
+      <c r="F40" t="s">
         <v>293</v>
       </c>
-      <c r="D40" t="s">
+      <c r="G40" t="s">
         <v>292</v>
       </c>
-      <c r="G40" t="s">
-        <v>271</v>
-      </c>
-      <c r="H40">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <f t="shared" si="0"/>
         <v>40</v>
@@ -3061,20 +3060,20 @@
       <c r="B41" t="s">
         <v>147</v>
       </c>
-      <c r="C41" t="b">
+      <c r="C41" t="s">
+        <v>269</v>
+      </c>
+      <c r="D41">
+        <v>2</v>
+      </c>
+      <c r="F41" t="b">
         <v>0</v>
       </c>
-      <c r="D41" t="b">
+      <c r="G41" t="b">
         <v>1</v>
       </c>
-      <c r="G41" t="s">
-        <v>269</v>
-      </c>
-      <c r="H41">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <f t="shared" si="0"/>
         <v>41</v>
@@ -3082,20 +3081,20 @@
       <c r="B42" t="s">
         <v>148</v>
       </c>
-      <c r="C42" t="b">
+      <c r="C42" t="s">
+        <v>269</v>
+      </c>
+      <c r="D42">
+        <v>2</v>
+      </c>
+      <c r="F42" t="b">
         <v>0</v>
       </c>
-      <c r="D42" t="b">
+      <c r="G42" t="b">
         <v>1</v>
       </c>
-      <c r="G42" t="s">
-        <v>269</v>
-      </c>
-      <c r="H42">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <f t="shared" si="0"/>
         <v>42</v>
@@ -3103,20 +3102,20 @@
       <c r="B43" t="s">
         <v>149</v>
       </c>
-      <c r="C43" t="b">
+      <c r="C43" t="s">
+        <v>269</v>
+      </c>
+      <c r="D43">
+        <v>2</v>
+      </c>
+      <c r="F43" t="b">
         <v>0</v>
       </c>
-      <c r="D43" t="b">
+      <c r="G43" t="b">
         <v>1</v>
       </c>
-      <c r="G43" t="s">
-        <v>269</v>
-      </c>
-      <c r="H43">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <f t="shared" si="0"/>
         <v>43</v>
@@ -3124,20 +3123,20 @@
       <c r="B44" t="s">
         <v>150</v>
       </c>
-      <c r="C44" t="b">
+      <c r="C44" t="s">
+        <v>271</v>
+      </c>
+      <c r="D44">
+        <v>2</v>
+      </c>
+      <c r="F44" t="b">
         <v>0</v>
       </c>
-      <c r="D44" t="b">
+      <c r="G44" t="b">
         <v>1</v>
       </c>
-      <c r="G44" t="s">
-        <v>271</v>
-      </c>
-      <c r="H44">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <f t="shared" si="0"/>
         <v>44</v>
@@ -3146,25 +3145,25 @@
         <v>151</v>
       </c>
       <c r="C45" t="s">
+        <v>271</v>
+      </c>
+      <c r="D45">
+        <v>2</v>
+      </c>
+      <c r="F45" t="s">
         <v>294</v>
       </c>
-      <c r="D45" t="s">
+      <c r="G45" t="s">
         <v>295</v>
       </c>
-      <c r="E45" t="s">
+      <c r="H45" t="s">
         <v>296</v>
       </c>
-      <c r="F45" t="s">
+      <c r="I45" t="s">
         <v>297</v>
       </c>
-      <c r="G45" t="s">
-        <v>271</v>
-      </c>
-      <c r="H45">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <f t="shared" si="0"/>
         <v>45</v>
@@ -3173,25 +3172,25 @@
         <v>152</v>
       </c>
       <c r="C46" t="s">
+        <v>270</v>
+      </c>
+      <c r="D46">
+        <v>2</v>
+      </c>
+      <c r="F46" t="s">
         <v>296</v>
       </c>
-      <c r="D46" t="s">
+      <c r="G46" t="s">
         <v>297</v>
       </c>
-      <c r="E46" t="s">
+      <c r="H46" t="s">
         <v>298</v>
       </c>
-      <c r="F46" t="s">
+      <c r="I46" t="s">
         <v>299</v>
       </c>
-      <c r="G46" t="s">
-        <v>270</v>
-      </c>
-      <c r="H46">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <f t="shared" si="0"/>
         <v>46</v>
@@ -3200,25 +3199,25 @@
         <v>153</v>
       </c>
       <c r="C47" t="s">
+        <v>268</v>
+      </c>
+      <c r="D47">
+        <v>2</v>
+      </c>
+      <c r="F47" t="s">
         <v>295</v>
       </c>
-      <c r="D47" t="s">
+      <c r="G47" t="s">
         <v>300</v>
       </c>
-      <c r="E47" t="s">
+      <c r="H47" t="s">
         <v>301</v>
       </c>
-      <c r="F47" t="s">
+      <c r="I47" t="s">
         <v>302</v>
       </c>
-      <c r="G47" t="s">
-        <v>268</v>
-      </c>
-      <c r="H47">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <f t="shared" si="0"/>
         <v>47</v>
@@ -3227,25 +3226,25 @@
         <v>154</v>
       </c>
       <c r="C48" t="s">
+        <v>268</v>
+      </c>
+      <c r="D48">
+        <v>2</v>
+      </c>
+      <c r="F48" t="s">
         <v>296</v>
       </c>
-      <c r="D48" t="s">
+      <c r="G48" t="s">
         <v>297</v>
       </c>
-      <c r="E48" t="s">
+      <c r="H48" t="s">
         <v>303</v>
       </c>
-      <c r="F48" t="s">
+      <c r="I48" t="s">
         <v>301</v>
       </c>
-      <c r="G48" t="s">
-        <v>268</v>
-      </c>
-      <c r="H48">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <f t="shared" si="0"/>
         <v>48</v>
@@ -3254,25 +3253,25 @@
         <v>155</v>
       </c>
       <c r="C49" t="s">
+        <v>271</v>
+      </c>
+      <c r="D49">
+        <v>2</v>
+      </c>
+      <c r="F49" t="s">
         <v>304</v>
       </c>
-      <c r="D49" t="s">
+      <c r="G49" t="s">
         <v>305</v>
       </c>
-      <c r="E49" t="s">
+      <c r="H49" t="s">
         <v>306</v>
       </c>
-      <c r="F49" t="s">
+      <c r="I49" t="s">
         <v>307</v>
       </c>
-      <c r="G49" t="s">
-        <v>271</v>
-      </c>
-      <c r="H49">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <f t="shared" si="0"/>
         <v>49</v>
@@ -3281,25 +3280,25 @@
         <v>156</v>
       </c>
       <c r="C50" t="s">
+        <v>270</v>
+      </c>
+      <c r="D50">
+        <v>2</v>
+      </c>
+      <c r="F50" t="s">
         <v>308</v>
       </c>
-      <c r="D50" t="s">
+      <c r="G50" t="s">
         <v>309</v>
       </c>
-      <c r="E50" t="s">
+      <c r="H50" t="s">
         <v>310</v>
       </c>
-      <c r="F50" t="s">
+      <c r="I50" t="s">
         <v>311</v>
       </c>
-      <c r="G50" t="s">
-        <v>270</v>
-      </c>
-      <c r="H50">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <f t="shared" si="0"/>
         <v>50</v>
@@ -3308,25 +3307,25 @@
         <v>157</v>
       </c>
       <c r="C51" t="s">
+        <v>269</v>
+      </c>
+      <c r="D51">
+        <v>2</v>
+      </c>
+      <c r="F51" t="s">
         <v>312</v>
       </c>
-      <c r="D51" t="s">
+      <c r="G51" t="s">
         <v>309</v>
       </c>
-      <c r="E51" t="s">
+      <c r="H51" t="s">
         <v>313</v>
       </c>
-      <c r="F51" t="s">
+      <c r="I51" t="s">
         <v>314</v>
       </c>
-      <c r="G51" t="s">
-        <v>269</v>
-      </c>
-      <c r="H51">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <f t="shared" si="0"/>
         <v>51</v>
@@ -3335,25 +3334,25 @@
         <v>158</v>
       </c>
       <c r="C52" t="s">
+        <v>268</v>
+      </c>
+      <c r="D52">
+        <v>2</v>
+      </c>
+      <c r="F52" t="s">
         <v>315</v>
       </c>
-      <c r="D52" t="s">
+      <c r="G52" t="s">
         <v>316</v>
       </c>
-      <c r="E52" t="s">
+      <c r="H52" t="s">
         <v>313</v>
       </c>
-      <c r="F52" t="s">
+      <c r="I52" t="s">
         <v>317</v>
       </c>
-      <c r="G52" t="s">
-        <v>268</v>
-      </c>
-      <c r="H52">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <f t="shared" si="0"/>
         <v>52</v>
@@ -3362,25 +3361,25 @@
         <v>159</v>
       </c>
       <c r="C53" t="s">
+        <v>270</v>
+      </c>
+      <c r="D53">
+        <v>2</v>
+      </c>
+      <c r="F53" t="s">
         <v>318</v>
       </c>
-      <c r="D53" t="s">
+      <c r="G53" t="s">
         <v>312</v>
       </c>
-      <c r="E53" t="s">
+      <c r="H53" t="s">
         <v>319</v>
       </c>
-      <c r="F53" t="s">
+      <c r="I53" t="s">
         <v>320</v>
       </c>
-      <c r="G53" t="s">
-        <v>270</v>
-      </c>
-      <c r="H53">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <f t="shared" si="0"/>
         <v>53</v>
@@ -3389,25 +3388,25 @@
         <v>160</v>
       </c>
       <c r="C54" t="s">
+        <v>270</v>
+      </c>
+      <c r="D54">
+        <v>2</v>
+      </c>
+      <c r="F54" t="s">
         <v>310</v>
       </c>
-      <c r="D54" t="s">
+      <c r="G54" t="s">
         <v>321</v>
       </c>
-      <c r="E54" t="s">
+      <c r="H54" t="s">
         <v>318</v>
       </c>
-      <c r="F54" t="s">
+      <c r="I54" t="s">
         <v>309</v>
       </c>
-      <c r="G54" t="s">
-        <v>270</v>
-      </c>
-      <c r="H54">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <f t="shared" si="0"/>
         <v>54</v>
@@ -3416,25 +3415,25 @@
         <v>161</v>
       </c>
       <c r="C55" t="s">
+        <v>271</v>
+      </c>
+      <c r="D55">
+        <v>2</v>
+      </c>
+      <c r="F55" t="s">
         <v>322</v>
       </c>
-      <c r="D55" t="s">
+      <c r="G55" t="s">
         <v>318</v>
       </c>
-      <c r="E55" t="s">
+      <c r="H55" t="s">
         <v>313</v>
       </c>
-      <c r="F55" t="s">
+      <c r="I55" t="s">
         <v>310</v>
       </c>
-      <c r="G55" t="s">
-        <v>271</v>
-      </c>
-      <c r="H55">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <f t="shared" si="0"/>
         <v>55</v>
@@ -3443,25 +3442,25 @@
         <v>162</v>
       </c>
       <c r="C56" t="s">
+        <v>268</v>
+      </c>
+      <c r="D56">
+        <v>2</v>
+      </c>
+      <c r="F56" t="s">
         <v>312</v>
       </c>
-      <c r="D56" t="s">
+      <c r="G56" t="s">
         <v>309</v>
       </c>
-      <c r="E56" t="s">
+      <c r="H56" t="s">
         <v>318</v>
       </c>
-      <c r="F56" t="s">
+      <c r="I56" t="s">
         <v>323</v>
       </c>
-      <c r="G56" t="s">
-        <v>268</v>
-      </c>
-      <c r="H56">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <f t="shared" si="0"/>
         <v>56</v>
@@ -3470,25 +3469,25 @@
         <v>163</v>
       </c>
       <c r="C57" t="s">
+        <v>269</v>
+      </c>
+      <c r="D57">
+        <v>2</v>
+      </c>
+      <c r="F57" t="s">
         <v>318</v>
       </c>
-      <c r="D57" t="s">
+      <c r="G57" t="s">
         <v>312</v>
       </c>
-      <c r="E57" t="s">
+      <c r="H57" t="s">
         <v>313</v>
       </c>
-      <c r="F57" t="s">
+      <c r="I57" t="s">
         <v>309</v>
       </c>
-      <c r="G57" t="s">
-        <v>269</v>
-      </c>
-      <c r="H57">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <f t="shared" si="0"/>
         <v>57</v>
@@ -3497,25 +3496,25 @@
         <v>164</v>
       </c>
       <c r="C58" t="s">
+        <v>268</v>
+      </c>
+      <c r="D58">
+        <v>2</v>
+      </c>
+      <c r="F58" t="s">
         <v>312</v>
       </c>
-      <c r="D58" t="s">
+      <c r="G58" t="s">
         <v>324</v>
       </c>
-      <c r="E58" t="s">
+      <c r="H58" t="s">
         <v>318</v>
       </c>
-      <c r="F58" t="s">
+      <c r="I58" t="s">
         <v>323</v>
       </c>
-      <c r="G58" t="s">
-        <v>268</v>
-      </c>
-      <c r="H58">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <f t="shared" si="0"/>
         <v>58</v>
@@ -3524,25 +3523,25 @@
         <v>165</v>
       </c>
       <c r="C59" t="s">
+        <v>271</v>
+      </c>
+      <c r="D59">
+        <v>2</v>
+      </c>
+      <c r="F59" t="s">
         <v>310</v>
       </c>
-      <c r="D59" t="s">
+      <c r="G59" t="s">
         <v>312</v>
       </c>
-      <c r="E59" t="s">
+      <c r="H59" t="s">
         <v>318</v>
       </c>
-      <c r="F59" t="s">
+      <c r="I59" t="s">
         <v>309</v>
       </c>
-      <c r="G59" t="s">
-        <v>271</v>
-      </c>
-      <c r="H59">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <f t="shared" si="0"/>
         <v>59</v>
@@ -3551,25 +3550,25 @@
         <v>166</v>
       </c>
       <c r="C60" t="s">
+        <v>269</v>
+      </c>
+      <c r="D60">
+        <v>2</v>
+      </c>
+      <c r="F60" t="s">
         <v>325</v>
       </c>
-      <c r="D60" t="s">
+      <c r="G60" t="s">
         <v>326</v>
       </c>
-      <c r="E60" t="s">
+      <c r="H60" t="s">
         <v>327</v>
       </c>
-      <c r="F60" t="s">
+      <c r="I60" t="s">
         <v>328</v>
       </c>
-      <c r="G60" t="s">
-        <v>269</v>
-      </c>
-      <c r="H60">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <f t="shared" si="0"/>
         <v>60</v>
@@ -3578,25 +3577,25 @@
         <v>167</v>
       </c>
       <c r="C61" t="s">
+        <v>269</v>
+      </c>
+      <c r="D61">
+        <v>2</v>
+      </c>
+      <c r="F61" t="s">
         <v>325</v>
       </c>
-      <c r="D61" t="s">
+      <c r="G61" t="s">
         <v>326</v>
       </c>
-      <c r="E61" t="s">
+      <c r="H61" t="s">
         <v>327</v>
       </c>
-      <c r="F61" t="s">
+      <c r="I61" t="s">
         <v>328</v>
       </c>
-      <c r="G61" t="s">
-        <v>269</v>
-      </c>
-      <c r="H61">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <f t="shared" si="0"/>
         <v>61</v>
@@ -3605,25 +3604,25 @@
         <v>168</v>
       </c>
       <c r="C62" t="s">
+        <v>270</v>
+      </c>
+      <c r="D62">
+        <v>2</v>
+      </c>
+      <c r="F62" t="s">
         <v>325</v>
       </c>
-      <c r="D62" t="s">
+      <c r="G62" t="s">
         <v>326</v>
       </c>
-      <c r="E62" t="s">
+      <c r="H62" t="s">
         <v>327</v>
       </c>
-      <c r="F62" t="s">
+      <c r="I62" t="s">
         <v>328</v>
       </c>
-      <c r="G62" t="s">
-        <v>270</v>
-      </c>
-      <c r="H62">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <f t="shared" si="0"/>
         <v>62</v>
@@ -3632,25 +3631,25 @@
         <v>169</v>
       </c>
       <c r="C63" t="s">
+        <v>271</v>
+      </c>
+      <c r="D63">
+        <v>2</v>
+      </c>
+      <c r="F63" t="s">
         <v>325</v>
       </c>
-      <c r="D63" t="s">
+      <c r="G63" t="s">
         <v>326</v>
       </c>
-      <c r="E63" t="s">
+      <c r="H63" t="s">
         <v>327</v>
       </c>
-      <c r="F63" t="s">
+      <c r="I63" t="s">
         <v>328</v>
       </c>
-      <c r="G63" t="s">
-        <v>271</v>
-      </c>
-      <c r="H63">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <f t="shared" si="0"/>
         <v>63</v>
@@ -3659,25 +3658,25 @@
         <v>170</v>
       </c>
       <c r="C64" t="s">
+        <v>271</v>
+      </c>
+      <c r="D64">
+        <v>2</v>
+      </c>
+      <c r="F64" t="s">
         <v>329</v>
       </c>
-      <c r="D64" t="s">
+      <c r="G64" t="s">
         <v>330</v>
       </c>
-      <c r="E64" t="s">
+      <c r="H64" t="s">
         <v>331</v>
       </c>
-      <c r="F64" t="s">
+      <c r="I64" t="s">
         <v>332</v>
       </c>
-      <c r="G64" t="s">
-        <v>271</v>
-      </c>
-      <c r="H64">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <f t="shared" si="0"/>
         <v>64</v>
@@ -3686,25 +3685,25 @@
         <v>171</v>
       </c>
       <c r="C65" t="s">
+        <v>271</v>
+      </c>
+      <c r="D65">
+        <v>2</v>
+      </c>
+      <c r="F65" t="s">
         <v>333</v>
       </c>
-      <c r="D65" t="s">
+      <c r="G65" t="s">
         <v>334</v>
       </c>
-      <c r="E65" t="s">
+      <c r="H65" t="s">
         <v>335</v>
       </c>
-      <c r="F65" t="s">
+      <c r="I65" t="s">
         <v>336</v>
       </c>
-      <c r="G65" t="s">
-        <v>271</v>
-      </c>
-      <c r="H65">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <f t="shared" si="0"/>
         <v>65</v>
@@ -3713,25 +3712,25 @@
         <v>172</v>
       </c>
       <c r="C66" t="s">
+        <v>269</v>
+      </c>
+      <c r="D66">
+        <v>2</v>
+      </c>
+      <c r="F66" t="s">
         <v>337</v>
       </c>
-      <c r="D66" t="s">
+      <c r="G66" t="s">
         <v>123</v>
       </c>
-      <c r="E66" t="s">
+      <c r="H66" t="s">
         <v>334</v>
       </c>
-      <c r="F66" t="s">
+      <c r="I66" t="s">
         <v>333</v>
       </c>
-      <c r="G66" t="s">
-        <v>269</v>
-      </c>
-      <c r="H66">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <f t="shared" si="0"/>
         <v>66</v>
@@ -3739,26 +3738,26 @@
       <c r="B67" t="s">
         <v>173</v>
       </c>
-      <c r="C67">
+      <c r="C67" t="s">
+        <v>269</v>
+      </c>
+      <c r="D67">
+        <v>2</v>
+      </c>
+      <c r="F67">
         <v>1960</v>
       </c>
-      <c r="D67">
+      <c r="G67">
         <v>1967</v>
       </c>
-      <c r="E67">
+      <c r="H67">
         <v>1968</v>
       </c>
-      <c r="F67">
+      <c r="I67">
         <v>1952</v>
       </c>
-      <c r="G67" t="s">
-        <v>269</v>
-      </c>
-      <c r="H67">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <f t="shared" ref="A68:A131" si="1">A67 + 1</f>
         <v>67</v>
@@ -3767,25 +3766,25 @@
         <v>174</v>
       </c>
       <c r="C68" t="s">
+        <v>271</v>
+      </c>
+      <c r="D68">
+        <v>2</v>
+      </c>
+      <c r="F68" t="s">
         <v>327</v>
       </c>
-      <c r="D68" t="s">
+      <c r="G68" t="s">
         <v>338</v>
       </c>
-      <c r="E68" t="s">
+      <c r="H68" t="s">
         <v>326</v>
       </c>
-      <c r="F68" t="s">
+      <c r="I68" t="s">
         <v>328</v>
       </c>
-      <c r="G68" t="s">
-        <v>271</v>
-      </c>
-      <c r="H68">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <f t="shared" si="1"/>
         <v>68</v>
@@ -3793,20 +3792,20 @@
       <c r="B69" t="s">
         <v>175</v>
       </c>
-      <c r="C69" t="b">
+      <c r="C69" t="s">
+        <v>269</v>
+      </c>
+      <c r="D69">
+        <v>2</v>
+      </c>
+      <c r="F69" t="b">
         <v>1</v>
       </c>
-      <c r="D69" t="b">
+      <c r="G69" t="b">
         <v>0</v>
       </c>
-      <c r="G69" t="s">
-        <v>269</v>
-      </c>
-      <c r="H69">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <f t="shared" si="1"/>
         <v>69</v>
@@ -3815,19 +3814,19 @@
         <v>176</v>
       </c>
       <c r="C70" t="s">
+        <v>271</v>
+      </c>
+      <c r="D70">
+        <v>2</v>
+      </c>
+      <c r="F70" t="s">
         <v>339</v>
       </c>
-      <c r="D70" t="s">
+      <c r="G70" t="s">
         <v>340</v>
       </c>
-      <c r="G70" t="s">
-        <v>271</v>
-      </c>
-      <c r="H70">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <f t="shared" si="1"/>
         <v>70</v>
@@ -3836,19 +3835,19 @@
         <v>177</v>
       </c>
       <c r="C71" t="s">
+        <v>271</v>
+      </c>
+      <c r="D71">
+        <v>2</v>
+      </c>
+      <c r="F71" t="s">
         <v>339</v>
       </c>
-      <c r="D71" t="s">
+      <c r="G71" t="s">
         <v>340</v>
       </c>
-      <c r="G71" t="s">
-        <v>271</v>
-      </c>
-      <c r="H71">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <f t="shared" si="1"/>
         <v>71</v>
@@ -3857,19 +3856,19 @@
         <v>178</v>
       </c>
       <c r="C72" t="s">
+        <v>271</v>
+      </c>
+      <c r="D72">
+        <v>2</v>
+      </c>
+      <c r="F72" t="s">
         <v>339</v>
       </c>
-      <c r="D72" t="s">
+      <c r="G72" t="s">
         <v>340</v>
       </c>
-      <c r="G72" t="s">
-        <v>271</v>
-      </c>
-      <c r="H72">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <f t="shared" si="1"/>
         <v>72</v>
@@ -3878,19 +3877,19 @@
         <v>179</v>
       </c>
       <c r="C73" t="s">
+        <v>271</v>
+      </c>
+      <c r="D73">
+        <v>2</v>
+      </c>
+      <c r="F73" t="s">
         <v>293</v>
       </c>
-      <c r="D73" t="s">
+      <c r="G73" t="s">
         <v>292</v>
       </c>
-      <c r="G73" t="s">
-        <v>271</v>
-      </c>
-      <c r="H73">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <f t="shared" si="1"/>
         <v>73</v>
@@ -3899,19 +3898,19 @@
         <v>180</v>
       </c>
       <c r="C74" t="s">
+        <v>271</v>
+      </c>
+      <c r="D74">
+        <v>2</v>
+      </c>
+      <c r="F74" t="s">
         <v>293</v>
       </c>
-      <c r="D74" t="s">
+      <c r="G74" t="s">
         <v>292</v>
       </c>
-      <c r="G74" t="s">
-        <v>271</v>
-      </c>
-      <c r="H74">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <f t="shared" si="1"/>
         <v>74</v>
@@ -3920,25 +3919,25 @@
         <v>181</v>
       </c>
       <c r="C75" t="s">
+        <v>268</v>
+      </c>
+      <c r="D75">
+        <v>2</v>
+      </c>
+      <c r="F75" t="s">
         <v>341</v>
       </c>
-      <c r="D75" t="s">
+      <c r="G75" t="s">
         <v>342</v>
       </c>
-      <c r="E75" t="s">
+      <c r="H75" t="s">
         <v>343</v>
       </c>
-      <c r="F75" t="s">
+      <c r="I75" t="s">
         <v>344</v>
       </c>
-      <c r="G75" t="s">
-        <v>268</v>
-      </c>
-      <c r="H75">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <f t="shared" si="1"/>
         <v>75</v>
@@ -3947,25 +3946,25 @@
         <v>182</v>
       </c>
       <c r="C76" t="s">
+        <v>271</v>
+      </c>
+      <c r="D76">
+        <v>2</v>
+      </c>
+      <c r="F76" t="s">
         <v>345</v>
       </c>
-      <c r="D76" t="s">
+      <c r="G76" t="s">
         <v>346</v>
       </c>
-      <c r="E76" t="s">
+      <c r="H76" t="s">
         <v>347</v>
       </c>
-      <c r="F76" t="s">
+      <c r="I76" t="s">
         <v>348</v>
       </c>
-      <c r="G76" t="s">
-        <v>271</v>
-      </c>
-      <c r="H76">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <f t="shared" si="1"/>
         <v>76</v>
@@ -3974,25 +3973,25 @@
         <v>183</v>
       </c>
       <c r="C77" t="s">
+        <v>271</v>
+      </c>
+      <c r="D77">
+        <v>2</v>
+      </c>
+      <c r="F77" t="s">
         <v>344</v>
       </c>
-      <c r="D77" t="s">
+      <c r="G77" t="s">
         <v>342</v>
       </c>
-      <c r="E77" t="s">
+      <c r="H77" t="s">
         <v>341</v>
       </c>
-      <c r="F77" t="s">
+      <c r="I77" t="s">
         <v>349</v>
       </c>
-      <c r="G77" t="s">
-        <v>271</v>
-      </c>
-      <c r="H77">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <f t="shared" si="1"/>
         <v>77</v>
@@ -4001,25 +4000,25 @@
         <v>184</v>
       </c>
       <c r="C78" t="s">
+        <v>269</v>
+      </c>
+      <c r="D78">
+        <v>2</v>
+      </c>
+      <c r="F78" t="s">
         <v>341</v>
       </c>
-      <c r="D78" t="s">
+      <c r="G78" t="s">
         <v>343</v>
       </c>
-      <c r="E78" t="s">
+      <c r="H78" t="s">
         <v>344</v>
       </c>
-      <c r="F78" t="s">
+      <c r="I78" t="s">
         <v>342</v>
       </c>
-      <c r="G78" t="s">
-        <v>269</v>
-      </c>
-      <c r="H78">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <f t="shared" si="1"/>
         <v>78</v>
@@ -4028,25 +4027,25 @@
         <v>185</v>
       </c>
       <c r="C79" t="s">
+        <v>270</v>
+      </c>
+      <c r="D79">
+        <v>2</v>
+      </c>
+      <c r="F79" t="s">
         <v>350</v>
       </c>
-      <c r="D79" t="s">
+      <c r="G79" t="s">
         <v>351</v>
       </c>
-      <c r="E79" t="s">
+      <c r="H79" t="s">
         <v>352</v>
       </c>
-      <c r="F79" t="s">
+      <c r="I79" t="s">
         <v>353</v>
       </c>
-      <c r="G79" t="s">
-        <v>270</v>
-      </c>
-      <c r="H79">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <f t="shared" si="1"/>
         <v>79</v>
@@ -4055,25 +4054,25 @@
         <v>186</v>
       </c>
       <c r="C80" t="s">
+        <v>268</v>
+      </c>
+      <c r="D80">
+        <v>2</v>
+      </c>
+      <c r="F80" t="s">
         <v>353</v>
       </c>
-      <c r="D80" t="s">
+      <c r="G80" t="s">
         <v>351</v>
       </c>
-      <c r="E80" t="s">
+      <c r="H80" t="s">
         <v>352</v>
       </c>
-      <c r="F80" t="s">
+      <c r="I80" t="s">
         <v>354</v>
       </c>
-      <c r="G80" t="s">
-        <v>268</v>
-      </c>
-      <c r="H80">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <f t="shared" si="1"/>
         <v>80</v>
@@ -4082,25 +4081,25 @@
         <v>187</v>
       </c>
       <c r="C81" t="s">
+        <v>269</v>
+      </c>
+      <c r="D81">
+        <v>2</v>
+      </c>
+      <c r="F81" t="s">
         <v>355</v>
       </c>
-      <c r="D81" t="s">
+      <c r="G81" t="s">
         <v>356</v>
       </c>
-      <c r="E81" t="s">
+      <c r="H81" t="s">
         <v>357</v>
       </c>
-      <c r="F81" t="s">
+      <c r="I81" t="s">
         <v>358</v>
       </c>
-      <c r="G81" t="s">
-        <v>269</v>
-      </c>
-      <c r="H81">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <f t="shared" si="1"/>
         <v>81</v>
@@ -4109,25 +4108,25 @@
         <v>188</v>
       </c>
       <c r="C82" t="s">
+        <v>270</v>
+      </c>
+      <c r="D82">
+        <v>2</v>
+      </c>
+      <c r="F82" t="s">
         <v>356</v>
       </c>
-      <c r="D82" t="s">
+      <c r="G82" t="s">
         <v>355</v>
       </c>
-      <c r="E82" t="s">
+      <c r="H82" t="s">
         <v>357</v>
       </c>
-      <c r="F82" t="s">
+      <c r="I82" t="s">
         <v>358</v>
       </c>
-      <c r="G82" t="s">
-        <v>270</v>
-      </c>
-      <c r="H82">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <f t="shared" si="1"/>
         <v>82</v>
@@ -4136,25 +4135,25 @@
         <v>189</v>
       </c>
       <c r="C83" t="s">
+        <v>271</v>
+      </c>
+      <c r="D83">
+        <v>2</v>
+      </c>
+      <c r="F83" t="s">
         <v>359</v>
       </c>
-      <c r="D83" t="s">
+      <c r="G83" t="s">
         <v>352</v>
       </c>
-      <c r="E83" t="s">
+      <c r="H83" t="s">
         <v>351</v>
       </c>
-      <c r="F83" t="s">
+      <c r="I83" t="s">
         <v>360</v>
       </c>
-      <c r="G83" t="s">
-        <v>271</v>
-      </c>
-      <c r="H83">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <f t="shared" si="1"/>
         <v>83</v>
@@ -4163,25 +4162,25 @@
         <v>190</v>
       </c>
       <c r="C84" t="s">
+        <v>271</v>
+      </c>
+      <c r="D84">
+        <v>2</v>
+      </c>
+      <c r="F84" t="s">
         <v>327</v>
       </c>
-      <c r="D84" t="s">
+      <c r="G84" t="s">
         <v>338</v>
       </c>
-      <c r="E84" t="s">
+      <c r="H84" t="s">
         <v>326</v>
       </c>
-      <c r="F84" t="s">
+      <c r="I84" t="s">
         <v>328</v>
       </c>
-      <c r="G84" t="s">
-        <v>271</v>
-      </c>
-      <c r="H84">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <f t="shared" si="1"/>
         <v>84</v>
@@ -4190,25 +4189,25 @@
         <v>191</v>
       </c>
       <c r="C85" t="s">
+        <v>270</v>
+      </c>
+      <c r="D85">
+        <v>2</v>
+      </c>
+      <c r="F85" t="s">
         <v>327</v>
       </c>
-      <c r="D85" t="s">
+      <c r="G85" t="s">
         <v>338</v>
       </c>
-      <c r="E85" t="s">
+      <c r="H85" t="s">
         <v>326</v>
       </c>
-      <c r="F85" t="s">
+      <c r="I85" t="s">
         <v>328</v>
       </c>
-      <c r="G85" t="s">
-        <v>270</v>
-      </c>
-      <c r="H85">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <f t="shared" si="1"/>
         <v>85</v>
@@ -4217,25 +4216,25 @@
         <v>192</v>
       </c>
       <c r="C86" t="s">
+        <v>269</v>
+      </c>
+      <c r="D86">
+        <v>2</v>
+      </c>
+      <c r="F86" t="s">
         <v>361</v>
       </c>
-      <c r="D86" t="s">
+      <c r="G86" t="s">
         <v>136</v>
       </c>
-      <c r="E86" t="s">
+      <c r="H86" t="s">
         <v>362</v>
       </c>
-      <c r="F86" t="s">
+      <c r="I86" t="s">
         <v>363</v>
       </c>
-      <c r="G86" t="s">
-        <v>269</v>
-      </c>
-      <c r="H86">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <f t="shared" si="1"/>
         <v>86</v>
@@ -4244,25 +4243,25 @@
         <v>193</v>
       </c>
       <c r="C87" t="s">
+        <v>271</v>
+      </c>
+      <c r="D87">
+        <v>2</v>
+      </c>
+      <c r="F87" t="s">
         <v>361</v>
       </c>
-      <c r="D87" t="s">
+      <c r="G87" t="s">
         <v>136</v>
       </c>
-      <c r="E87" t="s">
+      <c r="H87" t="s">
         <v>362</v>
       </c>
-      <c r="F87" t="s">
+      <c r="I87" t="s">
         <v>363</v>
       </c>
-      <c r="G87" t="s">
-        <v>271</v>
-      </c>
-      <c r="H87">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <f t="shared" si="1"/>
         <v>87</v>
@@ -4271,25 +4270,25 @@
         <v>194</v>
       </c>
       <c r="C88" t="s">
+        <v>268</v>
+      </c>
+      <c r="D88">
+        <v>2</v>
+      </c>
+      <c r="F88" t="s">
         <v>364</v>
       </c>
-      <c r="D88" t="s">
+      <c r="G88" t="s">
         <v>365</v>
       </c>
-      <c r="E88" t="s">
+      <c r="H88" t="s">
         <v>366</v>
       </c>
-      <c r="F88" t="s">
+      <c r="I88" t="s">
         <v>367</v>
       </c>
-      <c r="G88" t="s">
-        <v>268</v>
-      </c>
-      <c r="H88">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <f t="shared" si="1"/>
         <v>88</v>
@@ -4298,25 +4297,25 @@
         <v>195</v>
       </c>
       <c r="C89" t="s">
+        <v>269</v>
+      </c>
+      <c r="D89">
+        <v>2</v>
+      </c>
+      <c r="F89" t="s">
         <v>368</v>
       </c>
-      <c r="D89" t="s">
+      <c r="G89" t="s">
         <v>369</v>
       </c>
-      <c r="E89" t="s">
+      <c r="H89" t="s">
         <v>370</v>
       </c>
-      <c r="F89" t="s">
+      <c r="I89" t="s">
         <v>371</v>
       </c>
-      <c r="G89" t="s">
-        <v>269</v>
-      </c>
-      <c r="H89">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <f t="shared" si="1"/>
         <v>89</v>
@@ -4325,25 +4324,25 @@
         <v>196</v>
       </c>
       <c r="C90" t="s">
+        <v>270</v>
+      </c>
+      <c r="D90">
+        <v>2</v>
+      </c>
+      <c r="F90" t="s">
         <v>372</v>
       </c>
-      <c r="D90" t="s">
+      <c r="G90" t="s">
         <v>373</v>
       </c>
-      <c r="E90" t="s">
+      <c r="H90" t="s">
         <v>374</v>
       </c>
-      <c r="F90" t="s">
+      <c r="I90" t="s">
         <v>375</v>
       </c>
-      <c r="G90" t="s">
-        <v>270</v>
-      </c>
-      <c r="H90">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <f t="shared" si="1"/>
         <v>90</v>
@@ -4352,25 +4351,25 @@
         <v>197</v>
       </c>
       <c r="C91" t="s">
+        <v>271</v>
+      </c>
+      <c r="D91">
+        <v>2</v>
+      </c>
+      <c r="F91" t="s">
         <v>376</v>
       </c>
-      <c r="D91" t="s">
+      <c r="G91" t="s">
         <v>377</v>
       </c>
-      <c r="E91" t="s">
+      <c r="H91" t="s">
         <v>378</v>
       </c>
-      <c r="F91" t="s">
+      <c r="I91" t="s">
         <v>379</v>
       </c>
-      <c r="G91" t="s">
-        <v>271</v>
-      </c>
-      <c r="H91">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <f t="shared" si="1"/>
         <v>91</v>
@@ -4379,25 +4378,25 @@
         <v>198</v>
       </c>
       <c r="C92" t="s">
+        <v>270</v>
+      </c>
+      <c r="D92">
+        <v>2</v>
+      </c>
+      <c r="F92" t="s">
         <v>380</v>
       </c>
-      <c r="D92" t="s">
+      <c r="G92" t="s">
         <v>381</v>
       </c>
-      <c r="E92" t="s">
+      <c r="H92" t="s">
         <v>382</v>
       </c>
-      <c r="F92" t="s">
+      <c r="I92" t="s">
         <v>383</v>
       </c>
-      <c r="G92" t="s">
-        <v>270</v>
-      </c>
-      <c r="H92">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <f t="shared" si="1"/>
         <v>92</v>
@@ -4405,26 +4404,26 @@
       <c r="B93" t="s">
         <v>199</v>
       </c>
-      <c r="C93">
+      <c r="C93" t="s">
+        <v>269</v>
+      </c>
+      <c r="D93">
+        <v>2</v>
+      </c>
+      <c r="F93">
         <v>400</v>
       </c>
-      <c r="D93">
+      <c r="G93">
         <v>300</v>
       </c>
-      <c r="E93">
+      <c r="H93">
         <v>200</v>
       </c>
-      <c r="F93">
+      <c r="I93">
         <v>100</v>
       </c>
-      <c r="G93" t="s">
-        <v>269</v>
-      </c>
-      <c r="H93">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <f t="shared" si="1"/>
         <v>93</v>
@@ -4432,26 +4431,26 @@
       <c r="B94" t="s">
         <v>200</v>
       </c>
-      <c r="C94">
+      <c r="C94" t="s">
+        <v>269</v>
+      </c>
+      <c r="D94">
+        <v>2</v>
+      </c>
+      <c r="F94">
         <v>5</v>
       </c>
-      <c r="D94">
+      <c r="G94">
         <v>4</v>
       </c>
-      <c r="E94">
+      <c r="H94">
         <v>3</v>
       </c>
-      <c r="F94">
-        <v>2</v>
-      </c>
-      <c r="G94" t="s">
-        <v>269</v>
-      </c>
-      <c r="H94">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I94">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <f t="shared" si="1"/>
         <v>94</v>
@@ -4460,25 +4459,25 @@
         <v>201</v>
       </c>
       <c r="C95" t="s">
+        <v>270</v>
+      </c>
+      <c r="D95">
+        <v>2</v>
+      </c>
+      <c r="F95" t="s">
         <v>384</v>
       </c>
-      <c r="D95" t="s">
+      <c r="G95" t="s">
         <v>385</v>
       </c>
-      <c r="E95" t="s">
+      <c r="H95" t="s">
         <v>124</v>
       </c>
-      <c r="F95" t="s">
+      <c r="I95" t="s">
         <v>386</v>
       </c>
-      <c r="G95" t="s">
-        <v>270</v>
-      </c>
-      <c r="H95">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <f t="shared" si="1"/>
         <v>95</v>
@@ -4487,25 +4486,25 @@
         <v>202</v>
       </c>
       <c r="C96" t="s">
+        <v>271</v>
+      </c>
+      <c r="D96">
+        <v>2</v>
+      </c>
+      <c r="F96" t="s">
         <v>387</v>
       </c>
-      <c r="D96" t="s">
+      <c r="G96" t="s">
         <v>388</v>
       </c>
-      <c r="E96" t="s">
+      <c r="H96" t="s">
         <v>389</v>
       </c>
-      <c r="F96" t="s">
+      <c r="I96" t="s">
         <v>390</v>
       </c>
-      <c r="G96" t="s">
-        <v>271</v>
-      </c>
-      <c r="H96">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <f t="shared" si="1"/>
         <v>96</v>
@@ -4514,25 +4513,25 @@
         <v>203</v>
       </c>
       <c r="C97" t="s">
+        <v>269</v>
+      </c>
+      <c r="D97">
+        <v>2</v>
+      </c>
+      <c r="F97" t="s">
         <v>391</v>
       </c>
-      <c r="D97" t="s">
+      <c r="G97" t="s">
         <v>392</v>
       </c>
-      <c r="E97" t="s">
+      <c r="H97" t="s">
         <v>393</v>
       </c>
-      <c r="F97" t="s">
+      <c r="I97" t="s">
         <v>394</v>
       </c>
-      <c r="G97" t="s">
-        <v>269</v>
-      </c>
-      <c r="H97">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <f t="shared" si="1"/>
         <v>97</v>
@@ -4541,25 +4540,25 @@
         <v>204</v>
       </c>
       <c r="C98" t="s">
+        <v>269</v>
+      </c>
+      <c r="D98">
+        <v>2</v>
+      </c>
+      <c r="F98" t="s">
         <v>395</v>
       </c>
-      <c r="D98" t="s">
+      <c r="G98" t="s">
         <v>396</v>
       </c>
-      <c r="E98" t="s">
+      <c r="H98" t="s">
         <v>397</v>
       </c>
-      <c r="F98" t="s">
+      <c r="I98" t="s">
         <v>398</v>
       </c>
-      <c r="G98" t="s">
-        <v>269</v>
-      </c>
-      <c r="H98">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
         <f t="shared" si="1"/>
         <v>98</v>
@@ -4568,25 +4567,25 @@
         <v>205</v>
       </c>
       <c r="C99" t="s">
+        <v>270</v>
+      </c>
+      <c r="D99">
+        <v>2</v>
+      </c>
+      <c r="F99" t="s">
         <v>399</v>
       </c>
-      <c r="D99" t="s">
+      <c r="G99" t="s">
         <v>400</v>
       </c>
-      <c r="E99" t="s">
+      <c r="H99" t="s">
         <v>401</v>
       </c>
-      <c r="F99" t="s">
+      <c r="I99" t="s">
         <v>402</v>
       </c>
-      <c r="G99" t="s">
-        <v>270</v>
-      </c>
-      <c r="H99">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
         <f t="shared" si="1"/>
         <v>99</v>
@@ -4595,25 +4594,25 @@
         <v>206</v>
       </c>
       <c r="C100" t="s">
+        <v>271</v>
+      </c>
+      <c r="D100">
+        <v>2</v>
+      </c>
+      <c r="F100" t="s">
         <v>403</v>
       </c>
-      <c r="D100" t="s">
+      <c r="G100" t="s">
         <v>404</v>
       </c>
-      <c r="E100" t="s">
+      <c r="H100" t="s">
         <v>405</v>
       </c>
-      <c r="F100" t="s">
+      <c r="I100" t="s">
         <v>406</v>
       </c>
-      <c r="G100" t="s">
-        <v>271</v>
-      </c>
-      <c r="H100">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
         <f t="shared" si="1"/>
         <v>100</v>
@@ -4622,25 +4621,25 @@
         <v>207</v>
       </c>
       <c r="C101" t="s">
+        <v>271</v>
+      </c>
+      <c r="D101">
+        <v>2</v>
+      </c>
+      <c r="F101" t="s">
         <v>407</v>
       </c>
-      <c r="D101" t="s">
+      <c r="G101" t="s">
         <v>390</v>
       </c>
-      <c r="E101" t="s">
+      <c r="H101" t="s">
         <v>389</v>
       </c>
-      <c r="F101" t="s">
+      <c r="I101" t="s">
         <v>387</v>
       </c>
-      <c r="G101" t="s">
-        <v>271</v>
-      </c>
-      <c r="H101">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
         <f t="shared" si="1"/>
         <v>101</v>
@@ -4649,25 +4648,25 @@
         <v>208</v>
       </c>
       <c r="C102" t="s">
+        <v>270</v>
+      </c>
+      <c r="D102">
+        <v>2</v>
+      </c>
+      <c r="F102" t="s">
         <v>408</v>
       </c>
-      <c r="D102" t="s">
+      <c r="G102" t="s">
         <v>409</v>
       </c>
-      <c r="E102" t="s">
+      <c r="H102" t="s">
         <v>410</v>
       </c>
-      <c r="F102" t="s">
+      <c r="I102" t="s">
         <v>411</v>
       </c>
-      <c r="G102" t="s">
-        <v>270</v>
-      </c>
-      <c r="H102">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
         <f t="shared" si="1"/>
         <v>102</v>
@@ -4676,25 +4675,25 @@
         <v>209</v>
       </c>
       <c r="C103" t="s">
+        <v>269</v>
+      </c>
+      <c r="D103">
+        <v>2</v>
+      </c>
+      <c r="F103" t="s">
         <v>412</v>
       </c>
-      <c r="D103" t="s">
+      <c r="G103" t="s">
         <v>413</v>
       </c>
-      <c r="E103" t="s">
+      <c r="H103" t="s">
         <v>414</v>
       </c>
-      <c r="F103" t="s">
+      <c r="I103" t="s">
         <v>415</v>
       </c>
-      <c r="G103" t="s">
-        <v>269</v>
-      </c>
-      <c r="H103">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
         <f t="shared" si="1"/>
         <v>103</v>
@@ -4703,25 +4702,25 @@
         <v>210</v>
       </c>
       <c r="C104" t="s">
+        <v>269</v>
+      </c>
+      <c r="D104">
+        <v>2</v>
+      </c>
+      <c r="F104" t="s">
         <v>416</v>
       </c>
-      <c r="D104" t="s">
+      <c r="G104" t="s">
         <v>417</v>
       </c>
-      <c r="E104" t="s">
+      <c r="H104" t="s">
         <v>418</v>
       </c>
-      <c r="F104" t="s">
+      <c r="I104" t="s">
         <v>106</v>
       </c>
-      <c r="G104" t="s">
-        <v>269</v>
-      </c>
-      <c r="H104">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
         <f t="shared" si="1"/>
         <v>104</v>
@@ -4730,25 +4729,25 @@
         <v>211</v>
       </c>
       <c r="C105" t="s">
+        <v>269</v>
+      </c>
+      <c r="D105">
+        <v>2</v>
+      </c>
+      <c r="F105" t="s">
         <v>419</v>
       </c>
-      <c r="D105" t="s">
+      <c r="G105" t="s">
         <v>420</v>
       </c>
-      <c r="E105" t="s">
+      <c r="H105" t="s">
         <v>421</v>
       </c>
-      <c r="F105" t="s">
+      <c r="I105" t="s">
         <v>422</v>
       </c>
-      <c r="G105" t="s">
-        <v>269</v>
-      </c>
-      <c r="H105">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
         <f t="shared" si="1"/>
         <v>105</v>
@@ -4757,25 +4756,25 @@
         <v>212</v>
       </c>
       <c r="C106" t="s">
+        <v>270</v>
+      </c>
+      <c r="D106">
+        <v>2</v>
+      </c>
+      <c r="F106" t="s">
         <v>423</v>
       </c>
-      <c r="D106" t="s">
+      <c r="G106" t="s">
         <v>424</v>
       </c>
-      <c r="E106" t="s">
+      <c r="H106" t="s">
         <v>425</v>
       </c>
-      <c r="F106" t="s">
+      <c r="I106" t="s">
         <v>122</v>
       </c>
-      <c r="G106" t="s">
-        <v>270</v>
-      </c>
-      <c r="H106">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
         <f t="shared" si="1"/>
         <v>106</v>
@@ -4784,25 +4783,25 @@
         <v>213</v>
       </c>
       <c r="C107" t="s">
+        <v>269</v>
+      </c>
+      <c r="D107">
+        <v>2</v>
+      </c>
+      <c r="F107" t="s">
         <v>137</v>
       </c>
-      <c r="D107" t="s">
+      <c r="G107" t="s">
         <v>362</v>
       </c>
-      <c r="E107" t="s">
+      <c r="H107" t="s">
         <v>140</v>
       </c>
-      <c r="F107" t="s">
+      <c r="I107" t="s">
         <v>136</v>
       </c>
-      <c r="G107" t="s">
-        <v>269</v>
-      </c>
-      <c r="H107">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
         <f t="shared" si="1"/>
         <v>107</v>
@@ -4811,25 +4810,25 @@
         <v>214</v>
       </c>
       <c r="C108" t="s">
+        <v>271</v>
+      </c>
+      <c r="D108">
+        <v>2</v>
+      </c>
+      <c r="F108" t="s">
         <v>140</v>
       </c>
-      <c r="D108" t="s">
+      <c r="G108" t="s">
         <v>362</v>
       </c>
-      <c r="E108" t="s">
+      <c r="H108" t="s">
         <v>134</v>
       </c>
-      <c r="F108" t="s">
+      <c r="I108" t="s">
         <v>363</v>
       </c>
-      <c r="G108" t="s">
-        <v>271</v>
-      </c>
-      <c r="H108">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
         <f t="shared" si="1"/>
         <v>108</v>
@@ -4838,25 +4837,25 @@
         <v>215</v>
       </c>
       <c r="C109" t="s">
+        <v>268</v>
+      </c>
+      <c r="D109">
+        <v>2</v>
+      </c>
+      <c r="F109" t="s">
         <v>407</v>
       </c>
-      <c r="D109" t="s">
+      <c r="G109" t="s">
         <v>426</v>
       </c>
-      <c r="E109" t="s">
+      <c r="H109" t="s">
         <v>427</v>
       </c>
-      <c r="F109" t="s">
+      <c r="I109" t="s">
         <v>428</v>
       </c>
-      <c r="G109" t="s">
-        <v>268</v>
-      </c>
-      <c r="H109">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
         <f t="shared" si="1"/>
         <v>109</v>
@@ -4865,25 +4864,25 @@
         <v>216</v>
       </c>
       <c r="C110" t="s">
+        <v>268</v>
+      </c>
+      <c r="D110">
+        <v>2</v>
+      </c>
+      <c r="F110" t="s">
         <v>429</v>
       </c>
-      <c r="D110" t="s">
+      <c r="G110" t="s">
         <v>430</v>
       </c>
-      <c r="E110" t="s">
+      <c r="H110" t="s">
         <v>431</v>
       </c>
-      <c r="F110" t="s">
+      <c r="I110" t="s">
         <v>106</v>
       </c>
-      <c r="G110" t="s">
-        <v>268</v>
-      </c>
-      <c r="H110">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
         <f t="shared" si="1"/>
         <v>110</v>
@@ -4892,25 +4891,25 @@
         <v>217</v>
       </c>
       <c r="C111" t="s">
+        <v>269</v>
+      </c>
+      <c r="D111">
+        <v>2</v>
+      </c>
+      <c r="F111" t="s">
         <v>137</v>
       </c>
-      <c r="D111" t="s">
+      <c r="G111" t="s">
         <v>136</v>
       </c>
-      <c r="E111" t="s">
+      <c r="H111" t="s">
         <v>134</v>
       </c>
-      <c r="F111" t="s">
+      <c r="I111" t="s">
         <v>135</v>
       </c>
-      <c r="G111" t="s">
-        <v>269</v>
-      </c>
-      <c r="H111">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
         <f t="shared" si="1"/>
         <v>111</v>
@@ -4919,25 +4918,25 @@
         <v>218</v>
       </c>
       <c r="C112" t="s">
+        <v>271</v>
+      </c>
+      <c r="D112">
+        <v>2</v>
+      </c>
+      <c r="F112" t="s">
         <v>432</v>
       </c>
-      <c r="D112" t="s">
+      <c r="G112" t="s">
         <v>141</v>
       </c>
-      <c r="E112" t="s">
+      <c r="H112" t="s">
         <v>140</v>
       </c>
-      <c r="F112" t="s">
+      <c r="I112" t="s">
         <v>363</v>
       </c>
-      <c r="G112" t="s">
-        <v>271</v>
-      </c>
-      <c r="H112">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
         <f t="shared" si="1"/>
         <v>112</v>
@@ -4946,25 +4945,25 @@
         <v>219</v>
       </c>
       <c r="C113" t="s">
+        <v>269</v>
+      </c>
+      <c r="D113">
+        <v>2</v>
+      </c>
+      <c r="F113" t="s">
         <v>433</v>
       </c>
-      <c r="D113" t="s">
+      <c r="G113" t="s">
         <v>434</v>
       </c>
-      <c r="E113" t="s">
+      <c r="H113" t="s">
         <v>137</v>
       </c>
-      <c r="F113" t="s">
+      <c r="I113" t="s">
         <v>362</v>
       </c>
-      <c r="G113" t="s">
-        <v>269</v>
-      </c>
-      <c r="H113">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
         <f t="shared" si="1"/>
         <v>113</v>
@@ -4973,25 +4972,25 @@
         <v>220</v>
       </c>
       <c r="C114" t="s">
+        <v>268</v>
+      </c>
+      <c r="D114">
+        <v>2</v>
+      </c>
+      <c r="F114" t="s">
         <v>435</v>
       </c>
-      <c r="D114" t="s">
+      <c r="G114" t="s">
         <v>436</v>
       </c>
-      <c r="E114" t="s">
+      <c r="H114" t="s">
         <v>437</v>
       </c>
-      <c r="F114" t="s">
+      <c r="I114" t="s">
         <v>106</v>
       </c>
-      <c r="G114" t="s">
-        <v>268</v>
-      </c>
-      <c r="H114">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
         <f t="shared" si="1"/>
         <v>114</v>
@@ -5000,25 +4999,25 @@
         <v>221</v>
       </c>
       <c r="C115" t="s">
+        <v>268</v>
+      </c>
+      <c r="D115">
+        <v>2</v>
+      </c>
+      <c r="F115" t="s">
         <v>438</v>
       </c>
-      <c r="D115" t="s">
+      <c r="G115" t="s">
         <v>439</v>
       </c>
-      <c r="E115" t="s">
+      <c r="H115" t="s">
         <v>440</v>
       </c>
-      <c r="F115" t="s">
+      <c r="I115" t="s">
         <v>106</v>
       </c>
-      <c r="G115" t="s">
-        <v>268</v>
-      </c>
-      <c r="H115">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
         <f t="shared" si="1"/>
         <v>115</v>
@@ -5027,25 +5026,25 @@
         <v>222</v>
       </c>
       <c r="C116" t="s">
+        <v>269</v>
+      </c>
+      <c r="D116">
+        <v>2</v>
+      </c>
+      <c r="F116" t="s">
         <v>390</v>
       </c>
-      <c r="D116" t="s">
+      <c r="G116" t="s">
         <v>389</v>
       </c>
-      <c r="E116" t="s">
+      <c r="H116" t="s">
         <v>387</v>
       </c>
-      <c r="F116" t="s">
+      <c r="I116" t="s">
         <v>388</v>
       </c>
-      <c r="G116" t="s">
-        <v>269</v>
-      </c>
-      <c r="H116">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
         <f t="shared" si="1"/>
         <v>116</v>
@@ -5054,25 +5053,25 @@
         <v>223</v>
       </c>
       <c r="C117" t="s">
+        <v>271</v>
+      </c>
+      <c r="D117">
+        <v>2</v>
+      </c>
+      <c r="F117" t="s">
         <v>407</v>
       </c>
-      <c r="D117" t="s">
+      <c r="G117" t="s">
         <v>390</v>
       </c>
-      <c r="E117" t="s">
+      <c r="H117" t="s">
         <v>389</v>
       </c>
-      <c r="F117" t="s">
+      <c r="I117" t="s">
         <v>387</v>
       </c>
-      <c r="G117" t="s">
-        <v>271</v>
-      </c>
-      <c r="H117">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
         <f t="shared" si="1"/>
         <v>117</v>
@@ -5081,25 +5080,25 @@
         <v>224</v>
       </c>
       <c r="C118" t="s">
+        <v>269</v>
+      </c>
+      <c r="D118">
+        <v>2</v>
+      </c>
+      <c r="F118" t="s">
         <v>441</v>
       </c>
-      <c r="D118" t="s">
+      <c r="G118" t="s">
         <v>307</v>
       </c>
-      <c r="E118" t="s">
+      <c r="H118" t="s">
         <v>442</v>
       </c>
-      <c r="F118" t="s">
+      <c r="I118" t="s">
         <v>68</v>
       </c>
-      <c r="G118" t="s">
-        <v>269</v>
-      </c>
-      <c r="H118">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
         <f t="shared" si="1"/>
         <v>118</v>
@@ -5108,25 +5107,25 @@
         <v>225</v>
       </c>
       <c r="C119" t="s">
+        <v>270</v>
+      </c>
+      <c r="D119">
+        <v>2</v>
+      </c>
+      <c r="F119" t="s">
         <v>443</v>
       </c>
-      <c r="D119" t="s">
+      <c r="G119" t="s">
         <v>444</v>
       </c>
-      <c r="E119" t="s">
+      <c r="H119" t="s">
         <v>445</v>
       </c>
-      <c r="F119" t="s">
+      <c r="I119" t="s">
         <v>446</v>
       </c>
-      <c r="G119" t="s">
-        <v>270</v>
-      </c>
-      <c r="H119">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
         <f t="shared" si="1"/>
         <v>119</v>
@@ -5135,25 +5134,25 @@
         <v>226</v>
       </c>
       <c r="C120" t="s">
+        <v>268</v>
+      </c>
+      <c r="D120">
+        <v>2</v>
+      </c>
+      <c r="F120" t="s">
         <v>447</v>
       </c>
-      <c r="D120" t="s">
+      <c r="G120" t="s">
         <v>448</v>
       </c>
-      <c r="E120" t="s">
+      <c r="H120" t="s">
         <v>449</v>
       </c>
-      <c r="F120" t="s">
+      <c r="I120" t="s">
         <v>450</v>
       </c>
-      <c r="G120" t="s">
-        <v>268</v>
-      </c>
-      <c r="H120">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
         <f t="shared" si="1"/>
         <v>120</v>
@@ -5162,25 +5161,25 @@
         <v>227</v>
       </c>
       <c r="C121" t="s">
+        <v>269</v>
+      </c>
+      <c r="D121">
+        <v>2</v>
+      </c>
+      <c r="F121" t="s">
         <v>400</v>
       </c>
-      <c r="D121" t="s">
+      <c r="G121" t="s">
         <v>451</v>
       </c>
-      <c r="E121" t="s">
+      <c r="H121" t="s">
         <v>452</v>
       </c>
-      <c r="F121" t="s">
+      <c r="I121" t="s">
         <v>453</v>
       </c>
-      <c r="G121" t="s">
-        <v>269</v>
-      </c>
-      <c r="H121">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
         <f t="shared" si="1"/>
         <v>121</v>
@@ -5189,25 +5188,25 @@
         <v>228</v>
       </c>
       <c r="C122" t="s">
+        <v>271</v>
+      </c>
+      <c r="D122">
+        <v>2</v>
+      </c>
+      <c r="F122" t="s">
         <v>454</v>
       </c>
-      <c r="D122" t="s">
+      <c r="G122" t="s">
         <v>449</v>
       </c>
-      <c r="E122" t="s">
+      <c r="H122" t="s">
         <v>412</v>
       </c>
-      <c r="F122" t="s">
+      <c r="I122" t="s">
         <v>455</v>
       </c>
-      <c r="G122" t="s">
-        <v>271</v>
-      </c>
-      <c r="H122">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
         <f t="shared" si="1"/>
         <v>122</v>
@@ -5216,25 +5215,25 @@
         <v>229</v>
       </c>
       <c r="C123" t="s">
+        <v>269</v>
+      </c>
+      <c r="D123">
+        <v>2</v>
+      </c>
+      <c r="F123" t="s">
         <v>390</v>
       </c>
-      <c r="D123" t="s">
+      <c r="G123" t="s">
         <v>389</v>
       </c>
-      <c r="E123" t="s">
+      <c r="H123" t="s">
         <v>387</v>
       </c>
-      <c r="F123" t="s">
+      <c r="I123" t="s">
         <v>407</v>
       </c>
-      <c r="G123" t="s">
-        <v>269</v>
-      </c>
-      <c r="H123">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
         <f t="shared" si="1"/>
         <v>123</v>
@@ -5243,25 +5242,25 @@
         <v>230</v>
       </c>
       <c r="C124" t="s">
+        <v>270</v>
+      </c>
+      <c r="D124">
+        <v>2</v>
+      </c>
+      <c r="F124" t="s">
         <v>456</v>
       </c>
-      <c r="D124" t="s">
+      <c r="G124" t="s">
         <v>457</v>
       </c>
-      <c r="E124" t="s">
+      <c r="H124" t="s">
         <v>458</v>
       </c>
-      <c r="F124" t="s">
+      <c r="I124" t="s">
         <v>459</v>
       </c>
-      <c r="G124" t="s">
-        <v>270</v>
-      </c>
-      <c r="H124">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
         <f t="shared" si="1"/>
         <v>124</v>
@@ -5270,25 +5269,25 @@
         <v>231</v>
       </c>
       <c r="C125" t="s">
+        <v>270</v>
+      </c>
+      <c r="D125">
+        <v>2</v>
+      </c>
+      <c r="F125" t="s">
         <v>460</v>
       </c>
-      <c r="D125" t="s">
+      <c r="G125" t="s">
         <v>461</v>
       </c>
-      <c r="E125" t="s">
+      <c r="H125" t="s">
         <v>462</v>
       </c>
-      <c r="F125" t="s">
+      <c r="I125" t="s">
         <v>463</v>
       </c>
-      <c r="G125" t="s">
-        <v>270</v>
-      </c>
-      <c r="H125">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
         <f t="shared" si="1"/>
         <v>125</v>
@@ -5297,25 +5296,25 @@
         <v>232</v>
       </c>
       <c r="C126" t="s">
+        <v>269</v>
+      </c>
+      <c r="D126">
+        <v>2</v>
+      </c>
+      <c r="F126" t="s">
         <v>464</v>
       </c>
-      <c r="D126" t="s">
+      <c r="G126" t="s">
         <v>465</v>
       </c>
-      <c r="E126" t="s">
+      <c r="H126" t="s">
         <v>466</v>
       </c>
-      <c r="F126" t="s">
+      <c r="I126" t="s">
         <v>64</v>
       </c>
-      <c r="G126" t="s">
-        <v>269</v>
-      </c>
-      <c r="H126">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A127" s="1">
         <f t="shared" si="1"/>
         <v>126</v>
@@ -5324,25 +5323,25 @@
         <v>233</v>
       </c>
       <c r="C127" t="s">
+        <v>270</v>
+      </c>
+      <c r="D127">
+        <v>2</v>
+      </c>
+      <c r="F127" t="s">
         <v>467</v>
       </c>
-      <c r="D127" t="s">
+      <c r="G127" t="s">
         <v>468</v>
       </c>
-      <c r="E127" t="s">
+      <c r="H127" t="s">
         <v>469</v>
       </c>
-      <c r="F127" t="s">
+      <c r="I127" t="s">
         <v>470</v>
       </c>
-      <c r="G127" t="s">
-        <v>270</v>
-      </c>
-      <c r="H127">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A128" s="1">
         <f t="shared" si="1"/>
         <v>127</v>
@@ -5351,25 +5350,25 @@
         <v>234</v>
       </c>
       <c r="C128" t="s">
+        <v>269</v>
+      </c>
+      <c r="D128">
+        <v>2</v>
+      </c>
+      <c r="F128" t="s">
         <v>471</v>
       </c>
-      <c r="D128" t="s">
+      <c r="G128" t="s">
         <v>472</v>
       </c>
-      <c r="E128" t="s">
+      <c r="H128" t="s">
         <v>473</v>
       </c>
-      <c r="F128" t="s">
+      <c r="I128" t="s">
         <v>474</v>
       </c>
-      <c r="G128" t="s">
-        <v>269</v>
-      </c>
-      <c r="H128">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A129" s="1">
         <f t="shared" si="1"/>
         <v>128</v>
@@ -5378,25 +5377,25 @@
         <v>235</v>
       </c>
       <c r="C129" t="s">
+        <v>269</v>
+      </c>
+      <c r="D129">
+        <v>2</v>
+      </c>
+      <c r="F129" t="s">
         <v>471</v>
       </c>
-      <c r="D129" t="s">
+      <c r="G129" t="s">
         <v>475</v>
       </c>
-      <c r="E129" t="s">
+      <c r="H129" t="s">
         <v>476</v>
       </c>
-      <c r="F129" t="s">
+      <c r="I129" t="s">
         <v>474</v>
       </c>
-      <c r="G129" t="s">
-        <v>269</v>
-      </c>
-      <c r="H129">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A130" s="1">
         <f t="shared" si="1"/>
         <v>129</v>
@@ -5405,25 +5404,25 @@
         <v>236</v>
       </c>
       <c r="C130" t="s">
+        <v>271</v>
+      </c>
+      <c r="D130">
+        <v>2</v>
+      </c>
+      <c r="F130" t="s">
         <v>477</v>
       </c>
-      <c r="D130" t="s">
+      <c r="G130" t="s">
         <v>478</v>
       </c>
-      <c r="E130" t="s">
+      <c r="H130" t="s">
         <v>479</v>
       </c>
-      <c r="F130" t="s">
+      <c r="I130" t="s">
         <v>106</v>
       </c>
-      <c r="G130" t="s">
-        <v>271</v>
-      </c>
-      <c r="H130">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A131" s="1">
         <f t="shared" si="1"/>
         <v>130</v>
@@ -5432,25 +5431,25 @@
         <v>237</v>
       </c>
       <c r="C131" t="s">
+        <v>270</v>
+      </c>
+      <c r="D131">
+        <v>2</v>
+      </c>
+      <c r="F131" t="s">
         <v>480</v>
       </c>
-      <c r="D131" t="s">
+      <c r="G131" t="s">
         <v>481</v>
       </c>
-      <c r="E131" t="s">
+      <c r="H131" t="s">
         <v>482</v>
       </c>
-      <c r="F131" t="s">
+      <c r="I131" t="s">
         <v>64</v>
       </c>
-      <c r="G131" t="s">
-        <v>270</v>
-      </c>
-      <c r="H131">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A132" s="1">
         <f t="shared" ref="A132:A161" si="2">A131 + 1</f>
         <v>131</v>
@@ -5459,25 +5458,25 @@
         <v>238</v>
       </c>
       <c r="C132" t="s">
+        <v>270</v>
+      </c>
+      <c r="D132">
+        <v>2</v>
+      </c>
+      <c r="F132" t="s">
         <v>483</v>
       </c>
-      <c r="D132" t="s">
+      <c r="G132" t="s">
         <v>484</v>
       </c>
-      <c r="E132" t="s">
+      <c r="H132" t="s">
         <v>485</v>
       </c>
-      <c r="F132" t="s">
+      <c r="I132" t="s">
         <v>64</v>
       </c>
-      <c r="G132" t="s">
-        <v>270</v>
-      </c>
-      <c r="H132">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A133" s="1">
         <f t="shared" si="2"/>
         <v>132</v>
@@ -5486,25 +5485,25 @@
         <v>239</v>
       </c>
       <c r="C133" t="s">
+        <v>269</v>
+      </c>
+      <c r="D133">
+        <v>2</v>
+      </c>
+      <c r="F133" t="s">
         <v>458</v>
       </c>
-      <c r="D133" t="s">
+      <c r="G133" t="s">
         <v>486</v>
       </c>
-      <c r="E133" t="s">
+      <c r="H133" t="s">
         <v>63</v>
       </c>
-      <c r="F133" t="s">
+      <c r="I133" t="s">
         <v>459</v>
       </c>
-      <c r="G133" t="s">
-        <v>269</v>
-      </c>
-      <c r="H133">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A134" s="1">
         <f t="shared" si="2"/>
         <v>133</v>
@@ -5513,25 +5512,25 @@
         <v>240</v>
       </c>
       <c r="C134" t="s">
+        <v>270</v>
+      </c>
+      <c r="D134">
+        <v>2</v>
+      </c>
+      <c r="F134" t="s">
         <v>457</v>
       </c>
-      <c r="D134" t="s">
+      <c r="G134" t="s">
         <v>487</v>
       </c>
-      <c r="E134" t="s">
+      <c r="H134" t="s">
         <v>63</v>
       </c>
-      <c r="F134" t="s">
+      <c r="I134" t="s">
         <v>456</v>
       </c>
-      <c r="G134" t="s">
-        <v>270</v>
-      </c>
-      <c r="H134">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A135" s="1">
         <f t="shared" si="2"/>
         <v>134</v>
@@ -5540,25 +5539,25 @@
         <v>241</v>
       </c>
       <c r="C135" t="s">
+        <v>271</v>
+      </c>
+      <c r="D135">
+        <v>2</v>
+      </c>
+      <c r="F135" t="s">
         <v>63</v>
       </c>
-      <c r="D135" t="s">
+      <c r="G135" t="s">
         <v>459</v>
       </c>
-      <c r="E135" t="s">
+      <c r="H135" t="s">
         <v>486</v>
       </c>
-      <c r="F135" t="s">
+      <c r="I135" t="s">
         <v>488</v>
       </c>
-      <c r="G135" t="s">
-        <v>271</v>
-      </c>
-      <c r="H135">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A136" s="1">
         <f t="shared" si="2"/>
         <v>135</v>
@@ -5567,25 +5566,25 @@
         <v>242</v>
       </c>
       <c r="C136" t="s">
+        <v>271</v>
+      </c>
+      <c r="D136">
+        <v>2</v>
+      </c>
+      <c r="F136" t="s">
         <v>63</v>
       </c>
-      <c r="D136" t="s">
+      <c r="G136" t="s">
         <v>457</v>
       </c>
-      <c r="E136" t="s">
+      <c r="H136" t="s">
         <v>459</v>
       </c>
-      <c r="F136" t="s">
+      <c r="I136" t="s">
         <v>456</v>
       </c>
-      <c r="G136" t="s">
-        <v>271</v>
-      </c>
-      <c r="H136">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A137" s="1">
         <f t="shared" si="2"/>
         <v>136</v>
@@ -5594,25 +5593,25 @@
         <v>243</v>
       </c>
       <c r="C137" t="s">
+        <v>269</v>
+      </c>
+      <c r="D137">
+        <v>2</v>
+      </c>
+      <c r="F137" t="s">
         <v>63</v>
       </c>
-      <c r="D137" t="s">
+      <c r="G137" t="s">
         <v>457</v>
       </c>
-      <c r="E137" t="s">
+      <c r="H137" t="s">
         <v>459</v>
       </c>
-      <c r="F137" t="s">
+      <c r="I137" t="s">
         <v>456</v>
       </c>
-      <c r="G137" t="s">
-        <v>269</v>
-      </c>
-      <c r="H137">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A138" s="1">
         <f t="shared" si="2"/>
         <v>137</v>
@@ -5621,25 +5620,25 @@
         <v>244</v>
       </c>
       <c r="C138" t="s">
+        <v>271</v>
+      </c>
+      <c r="D138">
+        <v>2</v>
+      </c>
+      <c r="F138" t="s">
         <v>61</v>
       </c>
-      <c r="D138" t="s">
+      <c r="G138" t="s">
         <v>459</v>
       </c>
-      <c r="E138" t="s">
+      <c r="H138" t="s">
         <v>457</v>
       </c>
-      <c r="F138" t="s">
+      <c r="I138" t="s">
         <v>63</v>
       </c>
-      <c r="G138" t="s">
-        <v>271</v>
-      </c>
-      <c r="H138">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A139" s="1">
         <f t="shared" si="2"/>
         <v>138</v>
@@ -5648,25 +5647,25 @@
         <v>245</v>
       </c>
       <c r="C139" t="s">
+        <v>269</v>
+      </c>
+      <c r="D139">
+        <v>2</v>
+      </c>
+      <c r="F139" t="s">
         <v>489</v>
       </c>
-      <c r="D139" t="s">
+      <c r="G139" t="s">
         <v>487</v>
       </c>
-      <c r="E139" t="s">
+      <c r="H139" t="s">
         <v>63</v>
       </c>
-      <c r="F139" t="s">
+      <c r="I139" t="s">
         <v>457</v>
       </c>
-      <c r="G139" t="s">
-        <v>269</v>
-      </c>
-      <c r="H139">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A140" s="1">
         <f t="shared" si="2"/>
         <v>139</v>
@@ -5675,25 +5674,25 @@
         <v>246</v>
       </c>
       <c r="C140" t="s">
+        <v>271</v>
+      </c>
+      <c r="D140">
+        <v>2</v>
+      </c>
+      <c r="F140" t="s">
         <v>490</v>
       </c>
-      <c r="D140" t="s">
+      <c r="G140" t="s">
         <v>489</v>
       </c>
-      <c r="E140" t="s">
+      <c r="H140" t="s">
         <v>459</v>
       </c>
-      <c r="F140" t="s">
+      <c r="I140" t="s">
         <v>457</v>
       </c>
-      <c r="G140" t="s">
-        <v>271</v>
-      </c>
-      <c r="H140">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A141" s="1">
         <f t="shared" si="2"/>
         <v>140</v>
@@ -5702,25 +5701,25 @@
         <v>247</v>
       </c>
       <c r="C141" t="s">
+        <v>270</v>
+      </c>
+      <c r="D141">
+        <v>2</v>
+      </c>
+      <c r="F141" t="s">
         <v>491</v>
       </c>
-      <c r="D141" t="s">
+      <c r="G141" t="s">
         <v>492</v>
       </c>
-      <c r="E141" t="s">
+      <c r="H141" t="s">
         <v>482</v>
       </c>
-      <c r="F141" t="s">
+      <c r="I141" t="s">
         <v>64</v>
       </c>
-      <c r="G141" t="s">
-        <v>270</v>
-      </c>
-      <c r="H141">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A142" s="1">
         <f t="shared" si="2"/>
         <v>141</v>
@@ -5729,25 +5728,25 @@
         <v>248</v>
       </c>
       <c r="C142" t="s">
+        <v>269</v>
+      </c>
+      <c r="D142">
+        <v>2</v>
+      </c>
+      <c r="F142" t="s">
         <v>493</v>
       </c>
-      <c r="D142" t="s">
+      <c r="G142" t="s">
         <v>494</v>
       </c>
-      <c r="E142" t="s">
+      <c r="H142" t="s">
         <v>495</v>
       </c>
-      <c r="F142" t="s">
+      <c r="I142" t="s">
         <v>106</v>
       </c>
-      <c r="G142" t="s">
-        <v>269</v>
-      </c>
-      <c r="H142">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A143" s="1">
         <f t="shared" si="2"/>
         <v>142</v>
@@ -5756,25 +5755,25 @@
         <v>249</v>
       </c>
       <c r="C143" t="s">
+        <v>268</v>
+      </c>
+      <c r="D143">
+        <v>2</v>
+      </c>
+      <c r="F143" t="s">
         <v>496</v>
       </c>
-      <c r="D143" t="s">
+      <c r="G143" t="s">
         <v>497</v>
       </c>
-      <c r="E143" t="s">
+      <c r="H143" t="s">
         <v>498</v>
       </c>
-      <c r="F143" t="s">
+      <c r="I143" t="s">
         <v>499</v>
       </c>
-      <c r="G143" t="s">
-        <v>268</v>
-      </c>
-      <c r="H143">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A144" s="1">
         <f t="shared" si="2"/>
         <v>143</v>
@@ -5783,25 +5782,25 @@
         <v>250</v>
       </c>
       <c r="C144" t="s">
+        <v>271</v>
+      </c>
+      <c r="D144">
+        <v>2</v>
+      </c>
+      <c r="F144" t="s">
         <v>500</v>
       </c>
-      <c r="D144" t="s">
+      <c r="G144" t="s">
         <v>501</v>
       </c>
-      <c r="E144" t="s">
+      <c r="H144" t="s">
         <v>482</v>
       </c>
-      <c r="F144" t="s">
+      <c r="I144" t="s">
         <v>64</v>
       </c>
-      <c r="G144" t="s">
-        <v>271</v>
-      </c>
-      <c r="H144">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A145" s="1">
         <f t="shared" si="2"/>
         <v>144</v>
@@ -5810,25 +5809,25 @@
         <v>251</v>
       </c>
       <c r="C145" t="s">
+        <v>270</v>
+      </c>
+      <c r="D145">
+        <v>2</v>
+      </c>
+      <c r="F145" t="s">
         <v>134</v>
       </c>
-      <c r="D145" t="s">
+      <c r="G145" t="s">
         <v>361</v>
       </c>
-      <c r="E145" t="s">
+      <c r="H145" t="s">
         <v>137</v>
       </c>
-      <c r="F145" t="s">
+      <c r="I145" t="s">
         <v>362</v>
       </c>
-      <c r="G145" t="s">
-        <v>270</v>
-      </c>
-      <c r="H145">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A146" s="1">
         <f t="shared" si="2"/>
         <v>145</v>
@@ -5837,25 +5836,25 @@
         <v>252</v>
       </c>
       <c r="C146" t="s">
+        <v>269</v>
+      </c>
+      <c r="D146">
+        <v>2</v>
+      </c>
+      <c r="F146" t="s">
         <v>137</v>
       </c>
-      <c r="D146" t="s">
+      <c r="G146" t="s">
         <v>136</v>
       </c>
-      <c r="E146" t="s">
+      <c r="H146" t="s">
         <v>134</v>
       </c>
-      <c r="F146" t="s">
+      <c r="I146" t="s">
         <v>362</v>
       </c>
-      <c r="G146" t="s">
-        <v>269</v>
-      </c>
-      <c r="H146">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A147" s="1">
         <f t="shared" si="2"/>
         <v>146</v>
@@ -5864,25 +5863,25 @@
         <v>253</v>
       </c>
       <c r="C147" t="s">
+        <v>271</v>
+      </c>
+      <c r="D147">
+        <v>2</v>
+      </c>
+      <c r="F147" t="s">
         <v>502</v>
       </c>
-      <c r="D147" t="s">
+      <c r="G147" t="s">
         <v>503</v>
       </c>
-      <c r="E147" t="s">
+      <c r="H147" t="s">
         <v>504</v>
       </c>
-      <c r="F147" t="s">
+      <c r="I147" t="s">
         <v>505</v>
       </c>
-      <c r="G147" t="s">
-        <v>271</v>
-      </c>
-      <c r="H147">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A148" s="1">
         <f t="shared" si="2"/>
         <v>147</v>
@@ -5891,25 +5890,25 @@
         <v>254</v>
       </c>
       <c r="C148" t="s">
+        <v>270</v>
+      </c>
+      <c r="D148">
+        <v>2</v>
+      </c>
+      <c r="F148" t="s">
         <v>506</v>
       </c>
-      <c r="D148" t="s">
+      <c r="G148" t="s">
         <v>507</v>
       </c>
-      <c r="E148" t="s">
+      <c r="H148" t="s">
         <v>508</v>
       </c>
-      <c r="F148" t="s">
+      <c r="I148" t="s">
         <v>64</v>
       </c>
-      <c r="G148" t="s">
-        <v>270</v>
-      </c>
-      <c r="H148">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A149" s="1">
         <f t="shared" si="2"/>
         <v>148</v>
@@ -5918,25 +5917,25 @@
         <v>255</v>
       </c>
       <c r="C149" t="s">
+        <v>270</v>
+      </c>
+      <c r="D149">
+        <v>2</v>
+      </c>
+      <c r="F149" t="s">
         <v>509</v>
       </c>
-      <c r="D149" t="s">
+      <c r="G149" t="s">
         <v>510</v>
       </c>
-      <c r="E149" t="s">
+      <c r="H149" t="s">
         <v>511</v>
       </c>
-      <c r="F149" t="s">
+      <c r="I149" t="s">
         <v>64</v>
       </c>
-      <c r="G149" t="s">
-        <v>270</v>
-      </c>
-      <c r="H149">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A150" s="1">
         <f t="shared" si="2"/>
         <v>149</v>
@@ -5945,25 +5944,25 @@
         <v>256</v>
       </c>
       <c r="C150" t="s">
+        <v>269</v>
+      </c>
+      <c r="D150">
+        <v>2</v>
+      </c>
+      <c r="F150" t="s">
         <v>512</v>
       </c>
-      <c r="D150" t="s">
+      <c r="G150" t="s">
         <v>513</v>
       </c>
-      <c r="E150" t="s">
+      <c r="H150" t="s">
         <v>282</v>
       </c>
-      <c r="F150" t="s">
+      <c r="I150" t="s">
         <v>106</v>
       </c>
-      <c r="G150" t="s">
-        <v>269</v>
-      </c>
-      <c r="H150">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A151" s="1">
         <f t="shared" si="2"/>
         <v>150</v>
@@ -5972,25 +5971,25 @@
         <v>257</v>
       </c>
       <c r="C151" t="s">
+        <v>270</v>
+      </c>
+      <c r="D151">
+        <v>2</v>
+      </c>
+      <c r="F151" t="s">
         <v>514</v>
       </c>
-      <c r="D151" t="s">
+      <c r="G151" t="s">
         <v>515</v>
       </c>
-      <c r="E151" t="s">
+      <c r="H151" t="s">
         <v>516</v>
       </c>
-      <c r="F151" t="s">
+      <c r="I151" t="s">
         <v>64</v>
       </c>
-      <c r="G151" t="s">
-        <v>270</v>
-      </c>
-      <c r="H151">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A152" s="1">
         <f t="shared" si="2"/>
         <v>151</v>
@@ -5999,25 +5998,25 @@
         <v>258</v>
       </c>
       <c r="C152" t="s">
+        <v>270</v>
+      </c>
+      <c r="D152">
+        <v>2</v>
+      </c>
+      <c r="F152" t="s">
         <v>517</v>
       </c>
-      <c r="D152" t="s">
+      <c r="G152" t="s">
         <v>518</v>
       </c>
-      <c r="E152" t="s">
+      <c r="H152" t="s">
         <v>341</v>
       </c>
-      <c r="F152" t="s">
+      <c r="I152" t="s">
         <v>519</v>
       </c>
-      <c r="G152" t="s">
-        <v>270</v>
-      </c>
-      <c r="H152">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A153" s="1">
         <f t="shared" si="2"/>
         <v>152</v>
@@ -6026,25 +6025,25 @@
         <v>259</v>
       </c>
       <c r="C153" t="s">
+        <v>269</v>
+      </c>
+      <c r="D153">
+        <v>2</v>
+      </c>
+      <c r="F153" t="s">
         <v>520</v>
       </c>
-      <c r="D153" t="s">
+      <c r="G153" t="s">
         <v>521</v>
       </c>
-      <c r="E153" t="s">
+      <c r="H153" t="s">
         <v>447</v>
       </c>
-      <c r="F153" t="s">
+      <c r="I153" t="s">
         <v>522</v>
       </c>
-      <c r="G153" t="s">
-        <v>269</v>
-      </c>
-      <c r="H153">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A154" s="1">
         <f t="shared" si="2"/>
         <v>153</v>
@@ -6053,25 +6052,25 @@
         <v>260</v>
       </c>
       <c r="C154" t="s">
+        <v>268</v>
+      </c>
+      <c r="D154">
+        <v>2</v>
+      </c>
+      <c r="F154" t="s">
         <v>523</v>
       </c>
-      <c r="D154" t="s">
+      <c r="G154" t="s">
         <v>524</v>
       </c>
-      <c r="E154" t="s">
+      <c r="H154" t="s">
         <v>525</v>
       </c>
-      <c r="F154" t="s">
+      <c r="I154" t="s">
         <v>526</v>
       </c>
-      <c r="G154" t="s">
-        <v>268</v>
-      </c>
-      <c r="H154">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A155" s="1">
         <f t="shared" si="2"/>
         <v>154</v>
@@ -6079,26 +6078,26 @@
       <c r="B155" t="s">
         <v>261</v>
       </c>
-      <c r="C155">
+      <c r="C155" t="s">
+        <v>271</v>
+      </c>
+      <c r="D155">
+        <v>2</v>
+      </c>
+      <c r="F155">
         <v>1920</v>
       </c>
-      <c r="D155">
+      <c r="G155">
         <v>1930</v>
       </c>
-      <c r="E155">
+      <c r="H155">
         <v>1940</v>
       </c>
-      <c r="F155">
+      <c r="I155">
         <v>1950</v>
       </c>
-      <c r="G155" t="s">
-        <v>271</v>
-      </c>
-      <c r="H155">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A156" s="1">
         <f t="shared" si="2"/>
         <v>155</v>
@@ -6109,23 +6108,23 @@
       <c r="C156" t="s">
         <v>270</v>
       </c>
-      <c r="D156" t="s">
+      <c r="D156">
+        <v>2</v>
+      </c>
+      <c r="F156" t="s">
+        <v>270</v>
+      </c>
+      <c r="G156" t="s">
         <v>527</v>
       </c>
-      <c r="E156" t="s">
+      <c r="H156" t="s">
         <v>269</v>
       </c>
-      <c r="F156" t="s">
+      <c r="I156" t="s">
         <v>374</v>
       </c>
-      <c r="G156" t="s">
-        <v>270</v>
-      </c>
-      <c r="H156">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="157" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A157" s="1">
         <f t="shared" si="2"/>
         <v>156</v>
@@ -6134,25 +6133,25 @@
         <v>263</v>
       </c>
       <c r="C157" t="s">
+        <v>270</v>
+      </c>
+      <c r="D157">
+        <v>2</v>
+      </c>
+      <c r="F157" t="s">
         <v>528</v>
       </c>
-      <c r="D157" t="s">
+      <c r="G157" t="s">
         <v>345</v>
       </c>
-      <c r="E157" t="s">
+      <c r="H157" t="s">
         <v>529</v>
       </c>
-      <c r="F157" t="s">
+      <c r="I157" t="s">
         <v>530</v>
       </c>
-      <c r="G157" t="s">
-        <v>270</v>
-      </c>
-      <c r="H157">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A158" s="1">
         <f t="shared" si="2"/>
         <v>157</v>
@@ -6161,25 +6160,25 @@
         <v>264</v>
       </c>
       <c r="C158" t="s">
+        <v>269</v>
+      </c>
+      <c r="D158">
+        <v>2</v>
+      </c>
+      <c r="F158" t="s">
         <v>531</v>
       </c>
-      <c r="D158" t="s">
+      <c r="G158" t="s">
         <v>428</v>
       </c>
-      <c r="E158" t="s">
+      <c r="H158" t="s">
         <v>532</v>
       </c>
-      <c r="F158" t="s">
+      <c r="I158" t="s">
         <v>426</v>
       </c>
-      <c r="G158" t="s">
-        <v>269</v>
-      </c>
-      <c r="H158">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="159" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A159" s="1">
         <f t="shared" si="2"/>
         <v>158</v>
@@ -6187,26 +6186,26 @@
       <c r="B159" t="s">
         <v>265</v>
       </c>
-      <c r="C159">
+      <c r="C159" t="s">
+        <v>270</v>
+      </c>
+      <c r="D159">
+        <v>2</v>
+      </c>
+      <c r="F159">
         <v>300</v>
       </c>
-      <c r="D159">
+      <c r="G159">
         <v>400</v>
       </c>
-      <c r="E159">
+      <c r="H159">
         <v>200</v>
       </c>
-      <c r="F159">
+      <c r="I159">
         <v>100</v>
       </c>
-      <c r="G159" t="s">
-        <v>270</v>
-      </c>
-      <c r="H159">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A160" s="1">
         <f t="shared" si="2"/>
         <v>159</v>
@@ -6215,25 +6214,25 @@
         <v>266</v>
       </c>
       <c r="C160" t="s">
+        <v>271</v>
+      </c>
+      <c r="D160">
+        <v>2</v>
+      </c>
+      <c r="F160" t="s">
         <v>533</v>
       </c>
-      <c r="D160" t="s">
+      <c r="G160" t="s">
         <v>534</v>
       </c>
-      <c r="E160" t="s">
+      <c r="H160" t="s">
         <v>535</v>
       </c>
-      <c r="F160" t="s">
+      <c r="I160" t="s">
         <v>536</v>
       </c>
-      <c r="G160" t="s">
-        <v>271</v>
-      </c>
-      <c r="H160">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="161" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A161" s="1">
         <f t="shared" si="2"/>
         <v>160</v>
@@ -6242,22 +6241,22 @@
         <v>267</v>
       </c>
       <c r="C161" t="s">
+        <v>268</v>
+      </c>
+      <c r="D161">
+        <v>2</v>
+      </c>
+      <c r="F161" t="s">
         <v>432</v>
       </c>
-      <c r="D161" t="s">
+      <c r="G161" t="s">
         <v>137</v>
       </c>
-      <c r="E161" t="s">
+      <c r="H161" t="s">
         <v>138</v>
       </c>
-      <c r="F161" t="s">
+      <c r="I161" t="s">
         <v>135</v>
-      </c>
-      <c r="G161" t="s">
-        <v>268</v>
-      </c>
-      <c r="H161">
-        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/excel examples/questionsExample (for app).xlsx
+++ b/excel examples/questionsExample (for app).xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\keyz\Documents\cbt\cbt-new\computer-based-assessment\excel examples\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alikali Ojonugwa\Documents\React-Projectx\COMPUTER_BASED-ASSESSMENT\cbt\excel examples\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C71E75B-D213-456B-88DA-BB822C1F73C0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1643,7 +1644,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1963,24 +1964,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I161"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:E161"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="95.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="55" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="46.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="62.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="36.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="55" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="46.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="62.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="36.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
